--- a/Kolkata/Frono_Goods_Return_Report/Gr-Report.xlsx
+++ b/Kolkata/Frono_Goods_Return_Report/Gr-Report.xlsx
@@ -745,7 +745,7 @@
         <v>Pkb 291</v>
       </c>
       <c r="F12" t="str">
-        <v>Maroon</v>
+        <v>Blue</v>
       </c>
       <c r="G12" s="1" t="str">
         <v>02/04/2025</v>
@@ -780,7 +780,7 @@
         <v>Pkb 291</v>
       </c>
       <c r="F13" t="str">
-        <v>Blue</v>
+        <v>Maroon</v>
       </c>
       <c r="G13" s="1" t="str">
         <v>02/04/2025</v>
@@ -815,7 +815,7 @@
         <v>Pkb 297</v>
       </c>
       <c r="F14" t="str">
-        <v>Purple</v>
+        <v>Aqua</v>
       </c>
       <c r="G14" s="1" t="str">
         <v>02/04/2025</v>
@@ -850,7 +850,7 @@
         <v>Pkb 297</v>
       </c>
       <c r="F15" t="str">
-        <v>Aqua</v>
+        <v>Purple</v>
       </c>
       <c r="G15" s="1" t="str">
         <v>02/04/2025</v>
@@ -1923,7 +1923,7 @@
         <v>Pkb 213</v>
       </c>
       <c r="F52" t="str">
-        <v>Red</v>
+        <v>Purple</v>
       </c>
       <c r="G52" s="1" t="str">
         <v>09/04/2025</v>
@@ -1958,7 +1958,7 @@
         <v>Pkb 213</v>
       </c>
       <c r="F53" t="str">
-        <v>Purple</v>
+        <v>Red</v>
       </c>
       <c r="G53" s="1" t="str">
         <v>09/04/2025</v>
@@ -2497,7 +2497,7 @@
         <v>Pk 760</v>
       </c>
       <c r="F72" t="str">
-        <v>Bottle Green</v>
+        <v>Royal Blue</v>
       </c>
       <c r="G72" t="str">
         <v>14/04/2025</v>
@@ -2532,7 +2532,7 @@
         <v>Pk 760</v>
       </c>
       <c r="F73" t="str">
-        <v>Royal Blue</v>
+        <v>Bottle Green</v>
       </c>
       <c r="G73" t="str">
         <v>14/04/2025</v>
@@ -3429,7 +3429,7 @@
         <v>Pk 697</v>
       </c>
       <c r="F103" t="str">
-        <v>Onion</v>
+        <v>Aqua</v>
       </c>
       <c r="G103" s="1" t="str">
         <v>08/04/2025</v>
@@ -3461,7 +3461,7 @@
         <v>Pk 697</v>
       </c>
       <c r="F104" t="str">
-        <v>Aqua</v>
+        <v>Onion</v>
       </c>
       <c r="G104" s="1" t="str">
         <v>08/04/2025</v>
@@ -3658,7 +3658,7 @@
         <v>Pk 674</v>
       </c>
       <c r="F111" t="str">
-        <v>Aqua</v>
+        <v>Green</v>
       </c>
       <c r="G111" s="1" t="str">
         <v>08/04/2025</v>
@@ -3667,10 +3667,10 @@
         <v>CN/24-25/010</v>
       </c>
       <c r="I111">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="J111">
-        <v>24124.8</v>
+        <v>16083.2</v>
       </c>
       <c r="K111" t="str">
         <v>Sales Return</v>
@@ -3690,19 +3690,19 @@
         <v>Pk 674</v>
       </c>
       <c r="F112" t="str">
-        <v>Onion</v>
+        <v>Aqua</v>
       </c>
       <c r="G112" s="1" t="str">
-        <v>07/04/2025</v>
+        <v>08/04/2025</v>
       </c>
       <c r="H112" t="str">
-        <v>CN/25-26/007</v>
+        <v>CN/24-25/010</v>
       </c>
       <c r="I112">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="J112">
-        <v>4020.8</v>
+        <v>24124.8</v>
       </c>
       <c r="K112" t="str">
         <v>Sales Return</v>
@@ -3725,16 +3725,16 @@
         <v>Onion</v>
       </c>
       <c r="G113" s="1" t="str">
-        <v>08/04/2025</v>
+        <v>07/04/2025</v>
       </c>
       <c r="H113" t="str">
-        <v>CN/24-25/010</v>
+        <v>CN/25-26/007</v>
       </c>
       <c r="I113">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J113">
-        <v>2010.4</v>
+        <v>4020.8</v>
       </c>
       <c r="K113" t="str">
         <v>Sales Return</v>
@@ -3754,7 +3754,7 @@
         <v>Pk 674</v>
       </c>
       <c r="F114" t="str">
-        <v>Green</v>
+        <v>Onion</v>
       </c>
       <c r="G114" s="1" t="str">
         <v>08/04/2025</v>
@@ -3763,10 +3763,10 @@
         <v>CN/24-25/010</v>
       </c>
       <c r="I114">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="J114">
-        <v>16083.2</v>
+        <v>2010.4</v>
       </c>
       <c r="K114" t="str">
         <v>Sales Return</v>

--- a/Kolkata/Frono_Goods_Return_Report/Gr-Report.xlsx
+++ b/Kolkata/Frono_Goods_Return_Report/Gr-Report.xlsx
@@ -399,7 +399,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K115"/>
+  <dimension ref="A1:K193"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -445,74 +445,92 @@
         <v>1</v>
       </c>
       <c r="B3" t="str">
-        <v>ANAND APPARELS,Lucknow</v>
+        <v>AMOHA TRENDZ,Surat</v>
       </c>
       <c r="D3" t="str">
-        <v>PK 671</v>
+        <v>PK 524</v>
       </c>
       <c r="E3" t="str">
-        <v>Pk 671</v>
+        <v>Pk 524</v>
       </c>
       <c r="F3" t="str">
-        <v>Grey</v>
-      </c>
-      <c r="G3" s="1" t="str">
-        <v>11/04/2025</v>
+        <v>Chiku</v>
+      </c>
+      <c r="G3" t="str">
+        <v>19/04/2025</v>
       </c>
       <c r="H3" t="str">
-        <v>CN/25-26/012</v>
+        <v>CN/25-26/022</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="J3">
-        <v>1562.4</v>
+        <v>15036</v>
       </c>
       <c r="K3" t="str">
         <v>Sales Return</v>
       </c>
     </row>
     <row r="4">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="str">
+        <v>AMOHA TRENDZ,Surat</v>
+      </c>
+      <c r="D4" t="str">
+        <v>PK 524</v>
+      </c>
+      <c r="E4" t="str">
+        <v>Pk 524</v>
+      </c>
+      <c r="F4" t="str">
+        <v>Peach</v>
+      </c>
+      <c r="G4" t="str">
+        <v>19/04/2025</v>
+      </c>
       <c r="H4" t="str">
-        <v>Total</v>
+        <v>CN/25-26/022</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="J4">
-        <v>1562.4</v>
+        <v>15036</v>
+      </c>
+      <c r="K4" t="str">
+        <v>Sales Return</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B5" t="str">
-        <v>ARSH TRENDZ,Surat</v>
-      </c>
-      <c r="C5" t="str">
-        <v>ABHINANDAN AGENCY</v>
+        <v>AMOHA TRENDZ,Surat</v>
       </c>
       <c r="D5" t="str">
-        <v>PK 553</v>
+        <v>PK 524</v>
       </c>
       <c r="E5" t="str">
-        <v>Pk 553</v>
+        <v>Pk 524</v>
       </c>
       <c r="F5" t="str">
-        <v>Chiku</v>
-      </c>
-      <c r="G5" s="1" t="str">
-        <v>02/04/2025</v>
+        <v>Grey</v>
+      </c>
+      <c r="G5" t="str">
+        <v>19/04/2025</v>
       </c>
       <c r="H5" t="str">
-        <v>CN/25-26/004</v>
+        <v>CN/25-26/022</v>
       </c>
       <c r="I5">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="J5">
-        <v>8937.6</v>
+        <v>15036</v>
       </c>
       <c r="K5" t="str">
         <v>Sales Return</v>
@@ -520,34 +538,28 @@
     </row>
     <row r="6">
       <c r="A6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B6" t="str">
-        <v>ARSH TRENDZ,Surat</v>
-      </c>
-      <c r="C6" t="str">
-        <v>ABHINANDAN AGENCY</v>
+        <v>AMOHA TRENDZ,Surat</v>
       </c>
       <c r="D6" t="str">
-        <v>PK 576</v>
+        <v>PK 524 (P+D)</v>
       </c>
       <c r="E6" t="str">
-        <v>Pk 576</v>
-      </c>
-      <c r="F6" t="str">
-        <v>T.blue</v>
-      </c>
-      <c r="G6" s="1" t="str">
-        <v>02/04/2025</v>
+        <v>Pk 524 (Pant &amp; Dupatta)</v>
+      </c>
+      <c r="G6" t="str">
+        <v>19/04/2025</v>
       </c>
       <c r="H6" t="str">
-        <v>CN/25-26/004</v>
+        <v>CN/25-26/022</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="J6">
-        <v>2906.4</v>
+        <v>35280</v>
       </c>
       <c r="K6" t="str">
         <v>Sales Return</v>
@@ -555,34 +567,31 @@
     </row>
     <row r="7">
       <c r="A7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B7" t="str">
-        <v>ARSH TRENDZ,Surat</v>
-      </c>
-      <c r="C7" t="str">
-        <v>ABHINANDAN AGENCY</v>
+        <v>AMOHA TRENDZ,Surat</v>
       </c>
       <c r="D7" t="str">
-        <v>PK 577</v>
+        <v>PK 525</v>
       </c>
       <c r="E7" t="str">
-        <v>Pk 577</v>
+        <v>Pk 525</v>
       </c>
       <c r="F7" t="str">
-        <v>Off White</v>
-      </c>
-      <c r="G7" s="1" t="str">
-        <v>02/04/2025</v>
+        <v>Aqua</v>
+      </c>
+      <c r="G7" t="str">
+        <v>19/04/2025</v>
       </c>
       <c r="H7" t="str">
-        <v>CN/25-26/004</v>
+        <v>CN/25-26/026</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="J7">
-        <v>2906.4</v>
+        <v>15036</v>
       </c>
       <c r="K7" t="str">
         <v>Sales Return</v>
@@ -590,34 +599,31 @@
     </row>
     <row r="8">
       <c r="A8">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B8" t="str">
-        <v>ARSH TRENDZ,Surat</v>
-      </c>
-      <c r="C8" t="str">
-        <v>ABHINANDAN AGENCY</v>
+        <v>AMOHA TRENDZ,Surat</v>
       </c>
       <c r="D8" t="str">
-        <v>PK 755</v>
+        <v>PK 525</v>
       </c>
       <c r="E8" t="str">
-        <v>Pk 755</v>
+        <v>Pk 525</v>
       </c>
       <c r="F8" t="str">
-        <v>Blue</v>
-      </c>
-      <c r="G8" s="1" t="str">
-        <v>02/04/2025</v>
+        <v>Lilac</v>
+      </c>
+      <c r="G8" t="str">
+        <v>19/04/2025</v>
       </c>
       <c r="H8" t="str">
-        <v>CN/25-26/004</v>
+        <v>CN/25-26/026</v>
       </c>
       <c r="I8">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="J8">
-        <v>12521.6</v>
+        <v>15036</v>
       </c>
       <c r="K8" t="str">
         <v>Sales Return</v>
@@ -625,34 +631,31 @@
     </row>
     <row r="9">
       <c r="A9">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B9" t="str">
-        <v>ARSH TRENDZ,Surat</v>
-      </c>
-      <c r="C9" t="str">
-        <v>ABHINANDAN AGENCY</v>
+        <v>AMOHA TRENDZ,Surat</v>
       </c>
       <c r="D9" t="str">
-        <v>PK 755</v>
+        <v>PK 525</v>
       </c>
       <c r="E9" t="str">
-        <v>Pk 755</v>
+        <v>Pk 525</v>
       </c>
       <c r="F9" t="str">
-        <v>Maroon</v>
-      </c>
-      <c r="G9" s="1" t="str">
-        <v>02/04/2025</v>
+        <v>Grey</v>
+      </c>
+      <c r="G9" t="str">
+        <v>19/04/2025</v>
       </c>
       <c r="H9" t="str">
-        <v>CN/25-26/004</v>
+        <v>CN/25-26/026</v>
       </c>
       <c r="I9">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="J9">
-        <v>12521.6</v>
+        <v>15036</v>
       </c>
       <c r="K9" t="str">
         <v>Sales Return</v>
@@ -660,34 +663,28 @@
     </row>
     <row r="10">
       <c r="A10">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B10" t="str">
-        <v>ARSH TRENDZ,Surat</v>
-      </c>
-      <c r="C10" t="str">
-        <v>ABHINANDAN AGENCY</v>
+        <v>AMOHA TRENDZ,Surat</v>
       </c>
       <c r="D10" t="str">
-        <v>PK 758</v>
+        <v>PK 525 (P+D)</v>
       </c>
       <c r="E10" t="str">
-        <v>Pk 758</v>
-      </c>
-      <c r="F10" t="str">
-        <v>Grey</v>
-      </c>
-      <c r="G10" s="1" t="str">
-        <v>02/04/2025</v>
+        <v>Pk 525 (Pant &amp; Dupatta)</v>
+      </c>
+      <c r="G10" t="str">
+        <v>19/04/2025</v>
       </c>
       <c r="H10" t="str">
-        <v>CN/25-26/004</v>
+        <v>CN/25-26/026</v>
       </c>
       <c r="I10">
-        <v>2</v>
+        <v>48</v>
       </c>
       <c r="J10">
-        <v>5588.8</v>
+        <v>35280</v>
       </c>
       <c r="K10" t="str">
         <v>Sales Return</v>
@@ -695,34 +692,31 @@
     </row>
     <row r="11">
       <c r="A11">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B11" t="str">
-        <v>ARSH TRENDZ,Surat</v>
-      </c>
-      <c r="C11" t="str">
-        <v>ABHINANDAN AGENCY</v>
+        <v>AMOHA TRENDZ,Surat</v>
       </c>
       <c r="D11" t="str">
-        <v>PKB 215 B</v>
+        <v>PK 563 B</v>
       </c>
       <c r="E11" t="str">
-        <v>Pkb 215 B</v>
+        <v>Pk 563 B</v>
       </c>
       <c r="F11" t="str">
-        <v>Chiku</v>
-      </c>
-      <c r="G11" s="1" t="str">
-        <v>02/04/2025</v>
+        <v>Green</v>
+      </c>
+      <c r="G11" t="str">
+        <v>19/04/2025</v>
       </c>
       <c r="H11" t="str">
-        <v>CN/25-26/004</v>
+        <v>CN/25-26/022</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="J11">
-        <v>2234.4</v>
+        <v>15086.4</v>
       </c>
       <c r="K11" t="str">
         <v>Sales Return</v>
@@ -730,34 +724,31 @@
     </row>
     <row r="12">
       <c r="A12">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B12" t="str">
-        <v>ARSH TRENDZ,Surat</v>
-      </c>
-      <c r="C12" t="str">
-        <v>ABHINANDAN AGENCY</v>
+        <v>AMOHA TRENDZ,Surat</v>
       </c>
       <c r="D12" t="str">
-        <v>PKB 291</v>
+        <v>PK 563 B</v>
       </c>
       <c r="E12" t="str">
-        <v>Pkb 291</v>
+        <v>Pk 563 B</v>
       </c>
       <c r="F12" t="str">
-        <v>Blue</v>
-      </c>
-      <c r="G12" s="1" t="str">
-        <v>02/04/2025</v>
+        <v>Onion</v>
+      </c>
+      <c r="G12" t="str">
+        <v>19/04/2025</v>
       </c>
       <c r="H12" t="str">
-        <v>CN/25-26/004</v>
+        <v>CN/25-26/022</v>
       </c>
       <c r="I12">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="J12">
-        <v>12521.6</v>
+        <v>11314.8</v>
       </c>
       <c r="K12" t="str">
         <v>Sales Return</v>
@@ -765,34 +756,31 @@
     </row>
     <row r="13">
       <c r="A13">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B13" t="str">
-        <v>ARSH TRENDZ,Surat</v>
-      </c>
-      <c r="C13" t="str">
-        <v>ABHINANDAN AGENCY</v>
+        <v>AMOHA TRENDZ,Surat</v>
       </c>
       <c r="D13" t="str">
-        <v>PKB 291</v>
+        <v>PK 563 B</v>
       </c>
       <c r="E13" t="str">
-        <v>Pkb 291</v>
+        <v>Pk 563 B</v>
       </c>
       <c r="F13" t="str">
-        <v>Maroon</v>
-      </c>
-      <c r="G13" s="1" t="str">
-        <v>02/04/2025</v>
+        <v>Off White</v>
+      </c>
+      <c r="G13" t="str">
+        <v>19/04/2025</v>
       </c>
       <c r="H13" t="str">
-        <v>CN/25-26/004</v>
+        <v>CN/25-26/022</v>
       </c>
       <c r="I13">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="J13">
-        <v>12521.6</v>
+        <v>15086.4</v>
       </c>
       <c r="K13" t="str">
         <v>Sales Return</v>
@@ -800,34 +788,28 @@
     </row>
     <row r="14">
       <c r="A14">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B14" t="str">
-        <v>ARSH TRENDZ,Surat</v>
-      </c>
-      <c r="C14" t="str">
-        <v>ABHINANDAN AGENCY</v>
+        <v>AMOHA TRENDZ,Surat</v>
       </c>
       <c r="D14" t="str">
-        <v>PKB 297</v>
+        <v>PK 563 B (P+D)</v>
       </c>
       <c r="E14" t="str">
-        <v>Pkb 297</v>
-      </c>
-      <c r="F14" t="str">
-        <v>Aqua</v>
-      </c>
-      <c r="G14" s="1" t="str">
-        <v>02/04/2025</v>
+        <v>Pk 563 (Pant &amp; Dupatta)</v>
+      </c>
+      <c r="G14" t="str">
+        <v>19/04/2025</v>
       </c>
       <c r="H14" t="str">
-        <v>CN/25-26/004</v>
+        <v>CN/25-26/022</v>
       </c>
       <c r="I14">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="J14">
-        <v>10281.6</v>
+        <v>41441.4</v>
       </c>
       <c r="K14" t="str">
         <v>Sales Return</v>
@@ -835,123 +817,156 @@
     </row>
     <row r="15">
       <c r="A15">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B15" t="str">
-        <v>ARSH TRENDZ,Surat</v>
-      </c>
-      <c r="C15" t="str">
-        <v>ABHINANDAN AGENCY</v>
+        <v>AMOHA TRENDZ,Surat</v>
       </c>
       <c r="D15" t="str">
-        <v>PKB 297</v>
+        <v>PK 572 B</v>
       </c>
       <c r="E15" t="str">
-        <v>Pkb 297</v>
+        <v>Pk 572 B</v>
       </c>
       <c r="F15" t="str">
-        <v>Purple</v>
-      </c>
-      <c r="G15" s="1" t="str">
-        <v>02/04/2025</v>
+        <v>Chiku</v>
+      </c>
+      <c r="G15" t="str">
+        <v>19/04/2025</v>
       </c>
       <c r="H15" t="str">
-        <v>CN/25-26/004</v>
+        <v>CN/25-26/026</v>
       </c>
       <c r="I15">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="J15">
-        <v>10281.6</v>
+        <v>15086.4</v>
       </c>
       <c r="K15" t="str">
         <v>Sales Return</v>
       </c>
     </row>
     <row r="16">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" t="str">
+        <v>AMOHA TRENDZ,Surat</v>
+      </c>
+      <c r="D16" t="str">
+        <v>PK 572 B</v>
+      </c>
+      <c r="E16" t="str">
+        <v>Pk 572 B</v>
+      </c>
+      <c r="F16" t="str">
+        <v>Aqua</v>
+      </c>
+      <c r="G16" t="str">
+        <v>19/04/2025</v>
+      </c>
       <c r="H16" t="str">
-        <v>Total</v>
+        <v>CN/25-26/026</v>
       </c>
       <c r="I16">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="J16">
-        <v>93223.2</v>
+        <v>15086.4</v>
+      </c>
+      <c r="K16" t="str">
+        <v>Sales Return</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="B17" t="str">
-        <v>BACHOOMAL APPARELS PRIVATE LIMITED,Agra</v>
+        <v>AMOHA TRENDZ,Surat</v>
       </c>
       <c r="D17" t="str">
-        <v>PK 561</v>
+        <v>PK 572 B</v>
       </c>
       <c r="E17" t="str">
-        <v>Pk 561</v>
+        <v>Pk 572 B</v>
       </c>
       <c r="F17" t="str">
-        <v>T.blue</v>
+        <v>Green</v>
       </c>
       <c r="G17" t="str">
-        <v>17/04/2025</v>
+        <v>19/04/2025</v>
       </c>
       <c r="H17" t="str">
-        <v>CN/25-26/014</v>
+        <v>CN/25-26/026</v>
       </c>
       <c r="I17">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="J17">
-        <v>2122.4</v>
+        <v>15086.4</v>
       </c>
       <c r="K17" t="str">
         <v>Sales Return</v>
       </c>
     </row>
     <row r="18">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" t="str">
+        <v>AMOHA TRENDZ,Surat</v>
+      </c>
+      <c r="D18" t="str">
+        <v>PK 572 B (P+D)</v>
+      </c>
+      <c r="E18" t="str">
+        <v>Pk 572 B (Pant &amp; Dupatta)</v>
+      </c>
+      <c r="G18" t="str">
+        <v>19/04/2025</v>
+      </c>
       <c r="H18" t="str">
-        <v>Total</v>
+        <v>CN/25-26/026</v>
       </c>
       <c r="I18">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="J18">
-        <v>2122.4</v>
+        <v>45208.8</v>
+      </c>
+      <c r="K18" t="str">
+        <v>Sales Return</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="B19" t="str">
-        <v>BHOOMI DESIGNERS,Jaipur</v>
-      </c>
-      <c r="C19" t="str">
-        <v>RAGHANI</v>
+        <v>AMOHA TRENDZ,Surat</v>
       </c>
       <c r="D19" t="str">
-        <v>PKB 228</v>
+        <v>PK 683</v>
       </c>
       <c r="E19" t="str">
-        <v>Pkb 228</v>
+        <v>Pk 683</v>
       </c>
       <c r="F19" t="str">
-        <v>Wine</v>
+        <v>Maroon</v>
       </c>
       <c r="G19" t="str">
-        <v>21/04/2025</v>
+        <v>19/04/2025</v>
       </c>
       <c r="H19" t="str">
-        <v>CN/25-26/017</v>
+        <v>CN/25-26/024</v>
       </c>
       <c r="I19">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="J19">
-        <v>1885.8</v>
+        <v>30450</v>
       </c>
       <c r="K19" t="str">
         <v>Sales Return</v>
@@ -959,34 +974,31 @@
     </row>
     <row r="20">
       <c r="A20">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="B20" t="str">
-        <v>BHOOMI DESIGNERS,Jaipur</v>
-      </c>
-      <c r="C20" t="str">
-        <v>RAGHANI</v>
+        <v>AMOHA TRENDZ,Surat</v>
       </c>
       <c r="D20" t="str">
-        <v>PKB 228</v>
+        <v>PK 683</v>
       </c>
       <c r="E20" t="str">
-        <v>Pkb 228</v>
+        <v>Pk 683</v>
       </c>
       <c r="F20" t="str">
-        <v>Rani</v>
+        <v>Black</v>
       </c>
       <c r="G20" t="str">
-        <v>21/04/2025</v>
+        <v>19/04/2025</v>
       </c>
       <c r="H20" t="str">
-        <v>CN/25-26/017</v>
+        <v>CN/25-26/024</v>
       </c>
       <c r="I20">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="J20">
-        <v>2828.7</v>
+        <v>30450</v>
       </c>
       <c r="K20" t="str">
         <v>Sales Return</v>
@@ -994,74 +1006,89 @@
     </row>
     <row r="21">
       <c r="A21">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="B21" t="str">
-        <v>BHOOMI DESIGNERS,Jaipur</v>
-      </c>
-      <c r="C21" t="str">
-        <v>RAGHANI</v>
+        <v>AMOHA TRENDZ,Surat</v>
       </c>
       <c r="D21" t="str">
-        <v>PKB 228 (P+D)</v>
+        <v>PK 683</v>
       </c>
       <c r="E21" t="str">
-        <v>Pkb 228 (Pant &amp; Dupatta)</v>
+        <v>Pk 683</v>
+      </c>
+      <c r="F21" t="str">
+        <v>Purple</v>
       </c>
       <c r="G21" t="str">
-        <v>21/04/2025</v>
+        <v>19/04/2025</v>
       </c>
       <c r="H21" t="str">
-        <v>CN/25-26/017</v>
+        <v>CN/25-26/024</v>
       </c>
       <c r="I21">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="J21">
-        <v>4709.25</v>
+        <v>30450</v>
       </c>
       <c r="K21" t="str">
         <v>Sales Return</v>
       </c>
     </row>
     <row r="22">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22" t="str">
+        <v>AMOHA TRENDZ,Surat</v>
+      </c>
+      <c r="D22" t="str">
+        <v>PK 683 D</v>
+      </c>
+      <c r="E22" t="str">
+        <v>Pk 683 Dupatta</v>
+      </c>
+      <c r="G22" t="str">
+        <v>19/04/2025</v>
+      </c>
       <c r="H22" t="str">
-        <v>Total</v>
+        <v>CN/25-26/024</v>
       </c>
       <c r="I22">
-        <v>10</v>
+        <v>120</v>
       </c>
       <c r="J22">
-        <v>9423.75</v>
+        <v>69300</v>
+      </c>
+      <c r="K22" t="str">
+        <v>Sales Return</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B23" t="str">
-        <v>Blessings Apparels,East Delhi</v>
-      </c>
-      <c r="C23" t="str">
-        <v>RAGHANI</v>
+        <v>AMOHA TRENDZ,Surat</v>
       </c>
       <c r="D23" t="str">
-        <v>PD</v>
+        <v>PK 683 P</v>
       </c>
       <c r="E23" t="str">
-        <v>Pant &amp; Dupatta</v>
+        <v>Pk 683 Pant</v>
       </c>
       <c r="G23" t="str">
-        <v>25/04/2025</v>
+        <v>19/04/2025</v>
       </c>
       <c r="H23" t="str">
-        <v>CN/25-26/021</v>
+        <v>CN/25-26/024</v>
       </c>
       <c r="I23">
-        <v>1</v>
+        <v>120</v>
       </c>
       <c r="J23">
-        <v>630</v>
+        <v>90720</v>
       </c>
       <c r="K23" t="str">
         <v>Sales Return</v>
@@ -1069,34 +1096,31 @@
     </row>
     <row r="24">
       <c r="A24">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="B24" t="str">
-        <v>Blessings Apparels,East Delhi</v>
-      </c>
-      <c r="C24" t="str">
-        <v>RAGHANI</v>
+        <v>AMOHA TRENDZ,Surat</v>
       </c>
       <c r="D24" t="str">
-        <v>PK 524</v>
+        <v>PK 694</v>
       </c>
       <c r="E24" t="str">
-        <v>Pk 524</v>
+        <v>Pk 694</v>
       </c>
       <c r="F24" t="str">
         <v>Chiku</v>
       </c>
-      <c r="G24" s="1" t="str">
-        <v>09/04/2025</v>
+      <c r="G24" t="str">
+        <v>19/04/2025</v>
       </c>
       <c r="H24" t="str">
-        <v>CN/25-26/011</v>
+        <v>CN/25-26/023</v>
       </c>
       <c r="I24">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="J24">
-        <v>939.75</v>
+        <v>15086.4</v>
       </c>
       <c r="K24" t="str">
         <v>Sales Return</v>
@@ -1104,31 +1128,28 @@
     </row>
     <row r="25">
       <c r="A25">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="B25" t="str">
-        <v>Blessings Apparels,East Delhi</v>
-      </c>
-      <c r="C25" t="str">
-        <v>RAGHANI</v>
+        <v>AMOHA TRENDZ,Surat</v>
       </c>
       <c r="D25" t="str">
-        <v>PK 524 (P+D)</v>
+        <v>PK 694 (P+D)</v>
       </c>
       <c r="E25" t="str">
-        <v>Pk 524 (Pant &amp; Dupatta)</v>
-      </c>
-      <c r="G25" s="1" t="str">
-        <v>09/04/2025</v>
+        <v>Pk 694 (Pant &amp; Dupatta)</v>
+      </c>
+      <c r="G25" t="str">
+        <v>19/04/2025</v>
       </c>
       <c r="H25" t="str">
-        <v>CN/25-26/011</v>
+        <v>CN/25-26/023</v>
       </c>
       <c r="I25">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="J25">
-        <v>735</v>
+        <v>15069.6</v>
       </c>
       <c r="K25" t="str">
         <v>Sales Return</v>
@@ -1136,80 +1157,95 @@
     </row>
     <row r="26">
       <c r="A26">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="B26" t="str">
-        <v>Blessings Apparels,East Delhi</v>
-      </c>
-      <c r="C26" t="str">
-        <v>RAGHANI</v>
+        <v>AMOHA TRENDZ,Surat</v>
       </c>
       <c r="D26" t="str">
-        <v>PK 562</v>
+        <v>PK 795</v>
       </c>
       <c r="E26" t="str">
-        <v>Pk 562</v>
+        <v>Pk 795</v>
       </c>
       <c r="F26" t="str">
         <v>Bottle Green</v>
       </c>
       <c r="G26" t="str">
-        <v>25/04/2025</v>
+        <v>19/04/2025</v>
       </c>
       <c r="H26" t="str">
-        <v>CN/25-26/021</v>
+        <v>CN/25-26/025</v>
       </c>
       <c r="I26">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="J26">
-        <v>939.75</v>
+        <v>31500</v>
       </c>
       <c r="K26" t="str">
         <v>Sales Return</v>
       </c>
     </row>
     <row r="27">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27" t="str">
+        <v>AMOHA TRENDZ,Surat</v>
+      </c>
+      <c r="D27" t="str">
+        <v>PK 795</v>
+      </c>
+      <c r="E27" t="str">
+        <v>Pk 795</v>
+      </c>
+      <c r="F27" t="str">
+        <v>Cherry</v>
+      </c>
+      <c r="G27" t="str">
+        <v>19/04/2025</v>
+      </c>
       <c r="H27" t="str">
-        <v>Total</v>
+        <v>CN/25-26/025</v>
       </c>
       <c r="I27">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="J27">
-        <v>3244.5</v>
+        <v>31500</v>
+      </c>
+      <c r="K27" t="str">
+        <v>Sales Return</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="B28" t="str">
-        <v>BOMBAY EMPORIUM,Pune</v>
-      </c>
-      <c r="C28" t="str">
-        <v>ABHINANDAN AGENCY</v>
+        <v>AMOHA TRENDZ,Surat</v>
       </c>
       <c r="D28" t="str">
-        <v>PK 802</v>
+        <v>PK 795</v>
       </c>
       <c r="E28" t="str">
-        <v>Pk 802</v>
+        <v>Pk 795</v>
       </c>
       <c r="F28" t="str">
-        <v>Purple</v>
+        <v>Royal Blue</v>
       </c>
       <c r="G28" t="str">
-        <v>22/04/2025</v>
+        <v>19/04/2025</v>
       </c>
       <c r="H28" t="str">
-        <v>CN/25-26/003</v>
+        <v>CN/25-26/025</v>
       </c>
       <c r="I28">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="J28">
-        <v>822.94</v>
+        <v>31500</v>
       </c>
       <c r="K28" t="str">
         <v>Sales Return</v>
@@ -1217,31 +1253,28 @@
     </row>
     <row r="29">
       <c r="A29">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="B29" t="str">
-        <v>BOMBAY EMPORIUM,Pune</v>
-      </c>
-      <c r="C29" t="str">
-        <v>ABHINANDAN AGENCY</v>
+        <v>AMOHA TRENDZ,Surat</v>
       </c>
       <c r="D29" t="str">
-        <v>PK 802 D</v>
+        <v>PK 795 D</v>
       </c>
       <c r="E29" t="str">
-        <v>Pk 802 Dupatta</v>
+        <v>Pk 795 Dupatta</v>
       </c>
       <c r="G29" t="str">
-        <v>22/04/2025</v>
+        <v>19/04/2025</v>
       </c>
       <c r="H29" t="str">
-        <v>CN/25-26/003</v>
+        <v>CN/25-26/025</v>
       </c>
       <c r="I29">
-        <v>1</v>
+        <v>120</v>
       </c>
       <c r="J29">
-        <v>648.38</v>
+        <v>75600</v>
       </c>
       <c r="K29" t="str">
         <v>Sales Return</v>
@@ -1249,31 +1282,28 @@
     </row>
     <row r="30">
       <c r="A30">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B30" t="str">
-        <v>BOMBAY EMPORIUM,Pune</v>
-      </c>
-      <c r="C30" t="str">
-        <v>ABHINANDAN AGENCY</v>
+        <v>AMOHA TRENDZ,Surat</v>
       </c>
       <c r="D30" t="str">
-        <v>PK 802 P</v>
+        <v>PK 795 P</v>
       </c>
       <c r="E30" t="str">
-        <v>Pk 802 Pant</v>
+        <v>Pk 795 Pant</v>
       </c>
       <c r="G30" t="str">
-        <v>22/04/2025</v>
+        <v>19/04/2025</v>
       </c>
       <c r="H30" t="str">
-        <v>CN/25-26/003</v>
+        <v>CN/25-26/025</v>
       </c>
       <c r="I30">
-        <v>1</v>
+        <v>120</v>
       </c>
       <c r="J30">
-        <v>817.95</v>
+        <v>93870</v>
       </c>
       <c r="K30" t="str">
         <v>Sales Return</v>
@@ -1281,34 +1311,31 @@
     </row>
     <row r="31">
       <c r="A31">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="B31" t="str">
-        <v>BOMBAY EMPORIUM,Pune</v>
-      </c>
-      <c r="C31" t="str">
-        <v>ABHINANDAN AGENCY</v>
+        <v>AMOHA TRENDZ,Surat</v>
       </c>
       <c r="D31" t="str">
-        <v>PKB 248</v>
+        <v>PKB 205 B</v>
       </c>
       <c r="E31" t="str">
-        <v>Pkb 248</v>
+        <v>Pkb 205 B</v>
       </c>
       <c r="F31" t="str">
-        <v>Green</v>
+        <v>Red</v>
       </c>
       <c r="G31" t="str">
-        <v>22/04/2025</v>
+        <v>19/04/2025</v>
       </c>
       <c r="H31" t="str">
-        <v>CN/25-26/003</v>
+        <v>CN/25-26/022</v>
       </c>
       <c r="I31">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="J31">
-        <v>3391.52</v>
+        <v>15086.4</v>
       </c>
       <c r="K31" t="str">
         <v>Sales Return</v>
@@ -1316,31 +1343,31 @@
     </row>
     <row r="32">
       <c r="A32">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="B32" t="str">
-        <v>BOMBAY EMPORIUM,Pune</v>
-      </c>
-      <c r="C32" t="str">
-        <v>ABHINANDAN AGENCY</v>
+        <v>AMOHA TRENDZ,Surat</v>
       </c>
       <c r="D32" t="str">
-        <v>PKB 248 D</v>
+        <v>PKB 205 B</v>
       </c>
       <c r="E32" t="str">
-        <v>Pkb 248 Dupatta</v>
+        <v>Pkb 205 B</v>
+      </c>
+      <c r="F32" t="str">
+        <v>Mustard</v>
       </c>
       <c r="G32" t="str">
-        <v>22/04/2025</v>
+        <v>19/04/2025</v>
       </c>
       <c r="H32" t="str">
-        <v>CN/25-26/003</v>
+        <v>CN/25-26/022</v>
       </c>
       <c r="I32">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="J32">
-        <v>2793</v>
+        <v>15086.4</v>
       </c>
       <c r="K32" t="str">
         <v>Sales Return</v>
@@ -1348,114 +1375,156 @@
     </row>
     <row r="33">
       <c r="A33">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="B33" t="str">
-        <v>BOMBAY EMPORIUM,Pune</v>
-      </c>
-      <c r="C33" t="str">
-        <v>ABHINANDAN AGENCY</v>
+        <v>AMOHA TRENDZ,Surat</v>
       </c>
       <c r="D33" t="str">
-        <v>PKB 248 P</v>
+        <v>PKB 205 B</v>
       </c>
       <c r="E33" t="str">
-        <v>Pkb 248 Pant</v>
+        <v>Pkb 205 B</v>
+      </c>
+      <c r="F33" t="str">
+        <v>Bottle Green</v>
       </c>
       <c r="G33" t="str">
-        <v>22/04/2025</v>
+        <v>19/04/2025</v>
       </c>
       <c r="H33" t="str">
-        <v>CN/25-26/003</v>
+        <v>CN/25-26/022</v>
       </c>
       <c r="I33">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="J33">
-        <v>3371.55</v>
+        <v>15086.4</v>
       </c>
       <c r="K33" t="str">
         <v>Sales Return</v>
       </c>
     </row>
     <row r="34">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34" t="str">
+        <v>AMOHA TRENDZ,Surat</v>
+      </c>
+      <c r="D34" t="str">
+        <v>PKB 205 B (P+D)</v>
+      </c>
+      <c r="E34" t="str">
+        <v>Pkb 205 B (Pant &amp; Dupatta)</v>
+      </c>
+      <c r="G34" t="str">
+        <v>19/04/2025</v>
+      </c>
       <c r="H34" t="str">
-        <v>Total</v>
+        <v>CN/25-26/022</v>
       </c>
       <c r="I34">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="J34">
-        <v>11845.34</v>
+        <v>45208.8</v>
+      </c>
+      <c r="K34" t="str">
+        <v>Sales Return</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="B35" t="str">
-        <v>GEETA PLUS,Gorakhpur</v>
+        <v>AMOHA TRENDZ,Surat</v>
       </c>
       <c r="D35" t="str">
-        <v>PKB 291</v>
+        <v>PKB 215 B</v>
       </c>
       <c r="E35" t="str">
-        <v>Pkb 291</v>
+        <v>Pkb 215 B</v>
       </c>
       <c r="F35" t="str">
-        <v>Maroon</v>
+        <v>Chiku</v>
       </c>
       <c r="G35" t="str">
-        <v>21/04/2025</v>
+        <v>19/04/2025</v>
       </c>
       <c r="H35" t="str">
-        <v>CN/25-26/19</v>
+        <v>CN/25-26/022</v>
       </c>
       <c r="I35">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J35">
-        <v>12521.6</v>
+        <v>7543.2</v>
       </c>
       <c r="K35" t="str">
         <v>Sales Return</v>
       </c>
     </row>
     <row r="36">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36" t="str">
+        <v>AMOHA TRENDZ,Surat</v>
+      </c>
+      <c r="D36" t="str">
+        <v>PKB 215 B</v>
+      </c>
+      <c r="E36" t="str">
+        <v>Pkb 215 B</v>
+      </c>
+      <c r="F36" t="str">
+        <v>Charcoal</v>
+      </c>
+      <c r="G36" t="str">
+        <v>19/04/2025</v>
+      </c>
       <c r="H36" t="str">
-        <v>Total</v>
+        <v>CN/25-26/022</v>
       </c>
       <c r="I36">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="J36">
-        <v>12521.6</v>
+        <v>15086.4</v>
+      </c>
+      <c r="K36" t="str">
+        <v>Sales Return</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="B37" t="str">
-        <v>KAVYA CREATION,Ahmedabad</v>
+        <v>AMOHA TRENDZ,Surat</v>
       </c>
       <c r="D37" t="str">
-        <v>PD</v>
+        <v>PKB 215 B</v>
       </c>
       <c r="E37" t="str">
-        <v>Pant &amp; Dupatta</v>
-      </c>
-      <c r="G37" s="1" t="str">
-        <v>05/04/2025</v>
+        <v>Pkb 215 B</v>
+      </c>
+      <c r="F37" t="str">
+        <v>Wine</v>
+      </c>
+      <c r="G37" t="str">
+        <v>19/04/2025</v>
       </c>
       <c r="H37" t="str">
-        <v>CN/25-26/006</v>
+        <v>CN/25-26/022</v>
       </c>
       <c r="I37">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="J37">
-        <v>630</v>
+        <v>15086.4</v>
       </c>
       <c r="K37" t="str">
         <v>Sales Return</v>
@@ -1463,31 +1532,28 @@
     </row>
     <row r="38">
       <c r="A38">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="B38" t="str">
-        <v>KAVYA CREATION,Ahmedabad</v>
+        <v>AMOHA TRENDZ,Surat</v>
       </c>
       <c r="D38" t="str">
-        <v>PK 554</v>
+        <v>PKB 215 B (P+D)</v>
       </c>
       <c r="E38" t="str">
-        <v>Pk 554</v>
-      </c>
-      <c r="F38" t="str">
-        <v>Lilac</v>
-      </c>
-      <c r="G38" s="1" t="str">
-        <v>05/04/2025</v>
+        <v>Pkb 215 B (Pant &amp; Dupatta)</v>
+      </c>
+      <c r="G38" t="str">
+        <v>19/04/2025</v>
       </c>
       <c r="H38" t="str">
-        <v>CN/25-26/006</v>
+        <v>CN/25-26/022</v>
       </c>
       <c r="I38">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="J38">
-        <v>942.9</v>
+        <v>37674</v>
       </c>
       <c r="K38" t="str">
         <v>Sales Return</v>
@@ -1495,28 +1561,31 @@
     </row>
     <row r="39">
       <c r="A39">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="B39" t="str">
-        <v>KAVYA CREATION,Ahmedabad</v>
+        <v>AMOHA TRENDZ,Surat</v>
       </c>
       <c r="D39" t="str">
-        <v>PK 554 (P+D)</v>
+        <v>PKB 223</v>
       </c>
       <c r="E39" t="str">
-        <v>Pk 554 (Pant &amp; Dupatta)</v>
-      </c>
-      <c r="G39" s="1" t="str">
-        <v>05/04/2025</v>
+        <v>Pkb 223</v>
+      </c>
+      <c r="F39" t="str">
+        <v>Green</v>
+      </c>
+      <c r="G39" t="str">
+        <v>19/04/2025</v>
       </c>
       <c r="H39" t="str">
-        <v>CN/25-26/006</v>
+        <v>CN/25-26/023</v>
       </c>
       <c r="I39">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="J39">
-        <v>941.85</v>
+        <v>15225</v>
       </c>
       <c r="K39" t="str">
         <v>Sales Return</v>
@@ -1524,31 +1593,31 @@
     </row>
     <row r="40">
       <c r="A40">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="B40" t="str">
-        <v>KAVYA CREATION,Ahmedabad</v>
+        <v>AMOHA TRENDZ,Surat</v>
       </c>
       <c r="D40" t="str">
-        <v>PK 595</v>
+        <v>PKB 223</v>
       </c>
       <c r="E40" t="str">
-        <v>Pk 595</v>
+        <v>Pkb 223</v>
       </c>
       <c r="F40" t="str">
-        <v>M.green</v>
-      </c>
-      <c r="G40" s="1" t="str">
-        <v>05/04/2025</v>
+        <v>Purple</v>
+      </c>
+      <c r="G40" t="str">
+        <v>19/04/2025</v>
       </c>
       <c r="H40" t="str">
-        <v>CN/25-26/006</v>
+        <v>CN/25-26/023</v>
       </c>
       <c r="I40">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="J40">
-        <v>942.9</v>
+        <v>18270</v>
       </c>
       <c r="K40" t="str">
         <v>Sales Return</v>
@@ -1556,28 +1625,28 @@
     </row>
     <row r="41">
       <c r="A41">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="B41" t="str">
-        <v>KAVYA CREATION,Ahmedabad</v>
+        <v>AMOHA TRENDZ,Surat</v>
       </c>
       <c r="D41" t="str">
-        <v>PK 595 (P+D)</v>
+        <v>PKB 223 D</v>
       </c>
       <c r="E41" t="str">
-        <v>Pk 595 (Pant &amp; Dupatta)</v>
-      </c>
-      <c r="G41" s="1" t="str">
-        <v>05/04/2025</v>
+        <v>Pkb 223 Dupatta</v>
+      </c>
+      <c r="G41" t="str">
+        <v>19/04/2025</v>
       </c>
       <c r="H41" t="str">
-        <v>CN/25-26/006</v>
+        <v>CN/25-26/023</v>
       </c>
       <c r="I41">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="J41">
-        <v>941.85</v>
+        <v>25410</v>
       </c>
       <c r="K41" t="str">
         <v>Sales Return</v>
@@ -1585,540 +1654,528 @@
     </row>
     <row r="42">
       <c r="A42">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="B42" t="str">
-        <v>KAVYA CREATION,Ahmedabad</v>
+        <v>AMOHA TRENDZ,Surat</v>
       </c>
       <c r="D42" t="str">
-        <v>PKB 146</v>
+        <v>PKB 223 P</v>
       </c>
       <c r="E42" t="str">
-        <v>Pkb 146</v>
-      </c>
-      <c r="F42" t="str">
-        <v>Mustard</v>
-      </c>
-      <c r="G42" s="1" t="str">
-        <v>05/04/2025</v>
+        <v>Pkb 223 Pant</v>
+      </c>
+      <c r="G42" t="str">
+        <v>19/04/2025</v>
       </c>
       <c r="H42" t="str">
-        <v>CN/25-26/006</v>
+        <v>CN/25-26/023</v>
       </c>
       <c r="I42">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="J42">
-        <v>939.75</v>
+        <v>33264</v>
       </c>
       <c r="K42" t="str">
         <v>Sales Return</v>
       </c>
     </row>
     <row r="43">
+      <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43" t="str">
+        <v>AMOHA TRENDZ,Surat</v>
+      </c>
+      <c r="D43" t="str">
+        <v>PKB 228</v>
+      </c>
+      <c r="E43" t="str">
+        <v>Pkb 228</v>
+      </c>
+      <c r="F43" t="str">
+        <v>Rani</v>
+      </c>
+      <c r="G43" t="str">
+        <v>19/04/2025</v>
+      </c>
       <c r="H43" t="str">
-        <v>Total</v>
+        <v>CN/25-26/025</v>
       </c>
       <c r="I43">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="J43">
-        <v>5339.25</v>
+        <v>15086.4</v>
+      </c>
+      <c r="K43" t="str">
+        <v>Sales Return</v>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="B44" t="str">
-        <v>M/S BABULAL TEKRIWAL,Rohtas</v>
-      </c>
-      <c r="C44" t="str">
-        <v>SUSHIL</v>
+        <v>AMOHA TRENDZ,Surat</v>
       </c>
       <c r="D44" t="str">
-        <v>PK 470</v>
+        <v>PKB 228</v>
       </c>
       <c r="E44" t="str">
-        <v>Pk 470</v>
+        <v>Pkb 228</v>
       </c>
       <c r="F44" t="str">
-        <v>Mustard</v>
-      </c>
-      <c r="G44" s="1" t="str">
-        <v>09/04/2025</v>
+        <v>Rani</v>
+      </c>
+      <c r="G44" t="str">
+        <v>19/04/2025</v>
       </c>
       <c r="H44" t="str">
-        <v>CN/25-25/001</v>
+        <v>CN/25-26/026</v>
       </c>
       <c r="I44">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="J44">
-        <v>7145.6</v>
+        <v>18858</v>
       </c>
       <c r="K44" t="str">
-        <v>Others</v>
+        <v>Sales Return</v>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="B45" t="str">
-        <v>M/S BABULAL TEKRIWAL,Rohtas</v>
-      </c>
-      <c r="C45" t="str">
-        <v>SUSHIL</v>
+        <v>AMOHA TRENDZ,Surat</v>
       </c>
       <c r="D45" t="str">
-        <v>PK 558</v>
+        <v>PKB 228</v>
       </c>
       <c r="E45" t="str">
-        <v>Pk 558</v>
+        <v>Pkb 228</v>
       </c>
       <c r="F45" t="str">
-        <v>T.blue</v>
-      </c>
-      <c r="G45" s="1" t="str">
-        <v>09/04/2025</v>
+        <v>Wine</v>
+      </c>
+      <c r="G45" t="str">
+        <v>19/04/2025</v>
       </c>
       <c r="H45" t="str">
-        <v>CN/25-25/001</v>
+        <v>CN/25-26/025</v>
       </c>
       <c r="I45">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="J45">
-        <v>3124.8</v>
+        <v>18858</v>
       </c>
       <c r="K45" t="str">
-        <v>Others</v>
+        <v>Sales Return</v>
       </c>
     </row>
     <row r="46">
       <c r="A46">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="B46" t="str">
-        <v>M/S BABULAL TEKRIWAL,Rohtas</v>
-      </c>
-      <c r="C46" t="str">
-        <v>SUSHIL</v>
+        <v>AMOHA TRENDZ,Surat</v>
       </c>
       <c r="D46" t="str">
-        <v>PK 561</v>
+        <v>PKB 228</v>
       </c>
       <c r="E46" t="str">
-        <v>Pk 561</v>
+        <v>Pkb 228</v>
       </c>
       <c r="F46" t="str">
-        <v>Rani</v>
-      </c>
-      <c r="G46" s="1" t="str">
-        <v>09/04/2025</v>
+        <v>Wine</v>
+      </c>
+      <c r="G46" t="str">
+        <v>19/04/2025</v>
       </c>
       <c r="H46" t="str">
-        <v>CN/25-25/001</v>
+        <v>CN/25-26/026</v>
       </c>
       <c r="I46">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="J46">
-        <v>8489.6</v>
+        <v>18858</v>
       </c>
       <c r="K46" t="str">
-        <v>Others</v>
+        <v>Sales Return</v>
       </c>
     </row>
     <row r="47">
       <c r="A47">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="B47" t="str">
-        <v>M/S BABULAL TEKRIWAL,Rohtas</v>
-      </c>
-      <c r="C47" t="str">
-        <v>SUSHIL</v>
+        <v>AMOHA TRENDZ,Surat</v>
       </c>
       <c r="D47" t="str">
-        <v>PK 572 B</v>
+        <v>PKB 228</v>
       </c>
       <c r="E47" t="str">
-        <v>Pk 572 B</v>
+        <v>Pkb 228</v>
       </c>
       <c r="F47" t="str">
-        <v>Green</v>
-      </c>
-      <c r="G47" s="1" t="str">
-        <v>09/04/2025</v>
+        <v>Blue</v>
+      </c>
+      <c r="G47" t="str">
+        <v>19/04/2025</v>
       </c>
       <c r="H47" t="str">
-        <v>CN/25-25/001</v>
+        <v>CN/25-26/025</v>
       </c>
       <c r="I47">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="J47">
-        <v>8937.6</v>
+        <v>11314.8</v>
       </c>
       <c r="K47" t="str">
-        <v>Others</v>
+        <v>Sales Return</v>
       </c>
     </row>
     <row r="48">
       <c r="A48">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="B48" t="str">
-        <v>M/S BABULAL TEKRIWAL,Rohtas</v>
-      </c>
-      <c r="C48" t="str">
-        <v>SUSHIL</v>
+        <v>AMOHA TRENDZ,Surat</v>
       </c>
       <c r="D48" t="str">
-        <v>PK 605</v>
+        <v>PKB 228</v>
       </c>
       <c r="E48" t="str">
-        <v>Pk 605</v>
+        <v>Pkb 228</v>
       </c>
       <c r="F48" t="str">
-        <v>Grey</v>
-      </c>
-      <c r="G48" s="1" t="str">
-        <v>09/04/2025</v>
+        <v>Blue</v>
+      </c>
+      <c r="G48" t="str">
+        <v>19/04/2025</v>
       </c>
       <c r="H48" t="str">
-        <v>CN/25-25/001</v>
+        <v>CN/25-26/026</v>
       </c>
       <c r="I48">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="J48">
-        <v>8041.6</v>
+        <v>18858</v>
       </c>
       <c r="K48" t="str">
-        <v>Others</v>
+        <v>Sales Return</v>
       </c>
     </row>
     <row r="49">
       <c r="A49">
-        <v>6</v>
+        <v>47</v>
       </c>
       <c r="B49" t="str">
-        <v>M/S BABULAL TEKRIWAL,Rohtas</v>
-      </c>
-      <c r="C49" t="str">
-        <v>SUSHIL</v>
+        <v>AMOHA TRENDZ,Surat</v>
       </c>
       <c r="D49" t="str">
-        <v>PK 688</v>
+        <v>PKB 228 (P+D)</v>
       </c>
       <c r="E49" t="str">
-        <v>Pk 688</v>
-      </c>
-      <c r="F49" t="str">
-        <v>Wine</v>
-      </c>
-      <c r="G49" s="1" t="str">
-        <v>09/04/2025</v>
+        <v>Pkb 228 (Pant &amp; Dupatta)</v>
+      </c>
+      <c r="G49" t="str">
+        <v>19/04/2025</v>
       </c>
       <c r="H49" t="str">
-        <v>CN/25-25/001</v>
+        <v>CN/25-26/025</v>
       </c>
       <c r="I49">
-        <v>4</v>
+        <v>48</v>
       </c>
       <c r="J49">
-        <v>7145.6</v>
+        <v>45208.8</v>
       </c>
       <c r="K49" t="str">
-        <v>Others</v>
+        <v>Sales Return</v>
       </c>
     </row>
     <row r="50">
       <c r="A50">
-        <v>7</v>
+        <v>48</v>
       </c>
       <c r="B50" t="str">
-        <v>M/S BABULAL TEKRIWAL,Rohtas</v>
-      </c>
-      <c r="C50" t="str">
-        <v>SUSHIL</v>
+        <v>AMOHA TRENDZ,Surat</v>
       </c>
       <c r="D50" t="str">
-        <v>PK 697</v>
+        <v>PKB 228 (P+D)</v>
       </c>
       <c r="E50" t="str">
-        <v>Pk 697</v>
-      </c>
-      <c r="F50" t="str">
-        <v>Onion</v>
-      </c>
-      <c r="G50" s="1" t="str">
-        <v>09/04/2025</v>
+        <v>Pkb 228 (Pant &amp; Dupatta)</v>
+      </c>
+      <c r="G50" t="str">
+        <v>19/04/2025</v>
       </c>
       <c r="H50" t="str">
-        <v>CN/25-25/001</v>
+        <v>CN/25-26/026</v>
       </c>
       <c r="I50">
-        <v>4</v>
+        <v>60</v>
       </c>
       <c r="J50">
-        <v>8041.6</v>
+        <v>56511</v>
       </c>
       <c r="K50" t="str">
-        <v>Others</v>
+        <v>Sales Return</v>
       </c>
     </row>
     <row r="51">
       <c r="A51">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="B51" t="str">
-        <v>M/S BABULAL TEKRIWAL,Rohtas</v>
-      </c>
-      <c r="C51" t="str">
-        <v>SUSHIL</v>
+        <v>AMOHA TRENDZ,Surat</v>
       </c>
       <c r="D51" t="str">
-        <v>PKB 205 B</v>
+        <v>PKB 230</v>
       </c>
       <c r="E51" t="str">
-        <v>Pkb 205 B</v>
+        <v>Pkb 230</v>
       </c>
       <c r="F51" t="str">
-        <v>Mustard</v>
-      </c>
-      <c r="G51" s="1" t="str">
-        <v>09/04/2025</v>
+        <v>Cherry</v>
+      </c>
+      <c r="G51" t="str">
+        <v>19/04/2025</v>
       </c>
       <c r="H51" t="str">
-        <v>CN/25-25/001</v>
+        <v>CN/25-26/023</v>
       </c>
       <c r="I51">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="J51">
-        <v>8937.6</v>
+        <v>18858</v>
       </c>
       <c r="K51" t="str">
-        <v>Others</v>
+        <v>Sales Return</v>
       </c>
     </row>
     <row r="52">
       <c r="A52">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="B52" t="str">
-        <v>M/S BABULAL TEKRIWAL,Rohtas</v>
-      </c>
-      <c r="C52" t="str">
-        <v>SUSHIL</v>
+        <v>AMOHA TRENDZ,Surat</v>
       </c>
       <c r="D52" t="str">
-        <v>PKB 213</v>
+        <v>PKB 230</v>
       </c>
       <c r="E52" t="str">
-        <v>Pkb 213</v>
+        <v>Pkb 230</v>
       </c>
       <c r="F52" t="str">
-        <v>Purple</v>
-      </c>
-      <c r="G52" s="1" t="str">
-        <v>09/04/2025</v>
+        <v>Cherry</v>
+      </c>
+      <c r="G52" t="str">
+        <v>19/04/2025</v>
       </c>
       <c r="H52" t="str">
-        <v>CN/25-25/001</v>
+        <v>CN/25-26/026</v>
       </c>
       <c r="I52">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="J52">
-        <v>6697.6</v>
+        <v>18858</v>
       </c>
       <c r="K52" t="str">
-        <v>Others</v>
+        <v>Sales Return</v>
       </c>
     </row>
     <row r="53">
       <c r="A53">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="B53" t="str">
-        <v>M/S BABULAL TEKRIWAL,Rohtas</v>
-      </c>
-      <c r="C53" t="str">
-        <v>SUSHIL</v>
+        <v>AMOHA TRENDZ,Surat</v>
       </c>
       <c r="D53" t="str">
-        <v>PKB 213</v>
+        <v>PKB 230</v>
       </c>
       <c r="E53" t="str">
-        <v>Pkb 213</v>
+        <v>Pkb 230</v>
       </c>
       <c r="F53" t="str">
-        <v>Red</v>
-      </c>
-      <c r="G53" s="1" t="str">
-        <v>09/04/2025</v>
+        <v>Green</v>
+      </c>
+      <c r="G53" t="str">
+        <v>19/04/2025</v>
       </c>
       <c r="H53" t="str">
-        <v>CN/25-25/001</v>
+        <v>CN/25-26/023</v>
       </c>
       <c r="I53">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="J53">
-        <v>6697.6</v>
+        <v>18858</v>
       </c>
       <c r="K53" t="str">
-        <v>Others</v>
+        <v>Sales Return</v>
       </c>
     </row>
     <row r="54">
       <c r="A54">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="B54" t="str">
-        <v>M/S BABULAL TEKRIWAL,Rohtas</v>
-      </c>
-      <c r="C54" t="str">
-        <v>SUSHIL</v>
+        <v>AMOHA TRENDZ,Surat</v>
       </c>
       <c r="D54" t="str">
-        <v>PKB 217</v>
+        <v>PKB 230</v>
       </c>
       <c r="E54" t="str">
-        <v>Pkb 217</v>
+        <v>Pkb 230</v>
       </c>
       <c r="F54" t="str">
-        <v>Mustard</v>
-      </c>
-      <c r="G54" s="1" t="str">
-        <v>09/04/2025</v>
+        <v>Green</v>
+      </c>
+      <c r="G54" t="str">
+        <v>19/04/2025</v>
       </c>
       <c r="H54" t="str">
-        <v>CN/25-25/001</v>
+        <v>CN/25-26/026</v>
       </c>
       <c r="I54">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="J54">
-        <v>7593.6</v>
+        <v>15086.4</v>
       </c>
       <c r="K54" t="str">
-        <v>Others</v>
+        <v>Sales Return</v>
       </c>
     </row>
     <row r="55">
       <c r="A55">
-        <v>12</v>
+        <v>53</v>
       </c>
       <c r="B55" t="str">
-        <v>M/S BABULAL TEKRIWAL,Rohtas</v>
-      </c>
-      <c r="C55" t="str">
-        <v>SUSHIL</v>
+        <v>AMOHA TRENDZ,Surat</v>
       </c>
       <c r="D55" t="str">
-        <v>PKB 237</v>
+        <v>PKB 230 (P+D)</v>
       </c>
       <c r="E55" t="str">
-        <v>Pkb 237</v>
-      </c>
-      <c r="F55" t="str">
-        <v>Onion</v>
-      </c>
-      <c r="G55" s="1" t="str">
-        <v>09/04/2025</v>
+        <v>Pkb 230 (Pant &amp; Dupatta)</v>
+      </c>
+      <c r="G55" t="str">
+        <v>19/04/2025</v>
       </c>
       <c r="H55" t="str">
-        <v>CN/25-25/001</v>
+        <v>CN/25-26/023</v>
       </c>
       <c r="I55">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="J55">
-        <v>8937.6</v>
+        <v>37674</v>
       </c>
       <c r="K55" t="str">
-        <v>Others</v>
+        <v>Sales Return</v>
       </c>
     </row>
     <row r="56">
       <c r="A56">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="B56" t="str">
-        <v>M/S BABULAL TEKRIWAL,Rohtas</v>
-      </c>
-      <c r="C56" t="str">
-        <v>SUSHIL</v>
+        <v>AMOHA TRENDZ,Surat</v>
       </c>
       <c r="D56" t="str">
-        <v>PKB 251</v>
+        <v>PKB 230 (P+D)</v>
       </c>
       <c r="E56" t="str">
-        <v>Pkb 251</v>
-      </c>
-      <c r="F56" t="str">
-        <v>T.blue</v>
-      </c>
-      <c r="G56" s="1" t="str">
-        <v>09/04/2025</v>
+        <v>Pkb 230 (Pant &amp; Dupatta)</v>
+      </c>
+      <c r="G56" t="str">
+        <v>19/04/2025</v>
       </c>
       <c r="H56" t="str">
-        <v>CN/25-25/001</v>
+        <v>CN/25-26/026</v>
       </c>
       <c r="I56">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="J56">
-        <v>7593.6</v>
+        <v>33906.6</v>
       </c>
       <c r="K56" t="str">
-        <v>Others</v>
+        <v>Sales Return</v>
       </c>
     </row>
     <row r="57">
+      <c r="A57">
+        <v>55</v>
+      </c>
+      <c r="B57" t="str">
+        <v>AMOHA TRENDZ,Surat</v>
+      </c>
+      <c r="D57" t="str">
+        <v>PKB 248</v>
+      </c>
+      <c r="E57" t="str">
+        <v>Pkb 248</v>
+      </c>
+      <c r="F57" t="str">
+        <v>Rust</v>
+      </c>
+      <c r="G57" t="str">
+        <v>19/04/2025</v>
+      </c>
       <c r="H57" t="str">
-        <v>Total</v>
+        <v>CN/25-26/023</v>
       </c>
       <c r="I57">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="J57">
-        <v>97384</v>
+        <v>15750</v>
+      </c>
+      <c r="K57" t="str">
+        <v>Sales Return</v>
       </c>
     </row>
     <row r="58">
       <c r="A58">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="B58" t="str">
-        <v>M/S BLOSSOM BOUTIQUE,East Delhi</v>
+        <v>AMOHA TRENDZ,Surat</v>
       </c>
       <c r="D58" t="str">
-        <v>CKB 52</v>
+        <v>PKB 248</v>
       </c>
       <c r="E58" t="str">
-        <v>Ckb 52</v>
+        <v>Pkb 248</v>
       </c>
       <c r="F58" t="str">
-        <v>Single</v>
+        <v>Green</v>
       </c>
       <c r="G58" t="str">
-        <v>23/04/2025</v>
+        <v>19/04/2025</v>
       </c>
       <c r="H58" t="str">
-        <v>CN/25-26/018</v>
+        <v>CN/25-26/023</v>
       </c>
       <c r="I58">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="J58">
-        <v>2828.7</v>
+        <v>15750</v>
       </c>
       <c r="K58" t="str">
         <v>Sales Return</v>
@@ -2126,31 +2183,28 @@
     </row>
     <row r="59">
       <c r="A59">
-        <v>2</v>
+        <v>57</v>
       </c>
       <c r="B59" t="str">
-        <v>M/S BLOSSOM BOUTIQUE,East Delhi</v>
+        <v>AMOHA TRENDZ,Surat</v>
       </c>
       <c r="D59" t="str">
-        <v>PK 605</v>
+        <v>PKB 248 D</v>
       </c>
       <c r="E59" t="str">
-        <v>Pk 605</v>
-      </c>
-      <c r="F59" t="str">
-        <v>Green</v>
+        <v>Pkb 248 Dupatta</v>
       </c>
       <c r="G59" t="str">
-        <v>23/04/2025</v>
+        <v>19/04/2025</v>
       </c>
       <c r="H59" t="str">
-        <v>CN/25-26/018</v>
+        <v>CN/25-26/023</v>
       </c>
       <c r="I59">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="J59">
-        <v>3759</v>
+        <v>25200</v>
       </c>
       <c r="K59" t="str">
         <v>Sales Return</v>
@@ -2158,28 +2212,28 @@
     </row>
     <row r="60">
       <c r="A60">
-        <v>3</v>
+        <v>58</v>
       </c>
       <c r="B60" t="str">
-        <v>M/S BLOSSOM BOUTIQUE,East Delhi</v>
+        <v>AMOHA TRENDZ,Surat</v>
       </c>
       <c r="D60" t="str">
-        <v>PK 605 (P+D)</v>
+        <v>PKB 248 P</v>
       </c>
       <c r="E60" t="str">
-        <v>Pk 605 (Pant &amp; Dupatta)</v>
+        <v>Pkb 248 Pant</v>
       </c>
       <c r="G60" t="str">
-        <v>23/04/2025</v>
+        <v>19/04/2025</v>
       </c>
       <c r="H60" t="str">
-        <v>CN/25-26/018</v>
+        <v>CN/25-26/023</v>
       </c>
       <c r="I60">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="J60">
-        <v>2940</v>
+        <v>31290</v>
       </c>
       <c r="K60" t="str">
         <v>Sales Return</v>
@@ -2187,31 +2241,31 @@
     </row>
     <row r="61">
       <c r="A61">
-        <v>4</v>
+        <v>59</v>
       </c>
       <c r="B61" t="str">
-        <v>M/S BLOSSOM BOUTIQUE,East Delhi</v>
+        <v>AMOHA TRENDZ,Surat</v>
       </c>
       <c r="D61" t="str">
-        <v>PKB 223</v>
+        <v>PKB 277</v>
       </c>
       <c r="E61" t="str">
-        <v>Pkb 223</v>
+        <v>Pkb 277</v>
       </c>
       <c r="F61" t="str">
-        <v>Green</v>
+        <v>Grey</v>
       </c>
       <c r="G61" t="str">
-        <v>23/04/2025</v>
+        <v>19/04/2025</v>
       </c>
       <c r="H61" t="str">
-        <v>CN/25-26/018</v>
+        <v>CN/25-26/025</v>
       </c>
       <c r="I61">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="J61">
-        <v>1522.5</v>
+        <v>15086.4</v>
       </c>
       <c r="K61" t="str">
         <v>Sales Return</v>
@@ -2219,28 +2273,31 @@
     </row>
     <row r="62">
       <c r="A62">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="B62" t="str">
-        <v>M/S BLOSSOM BOUTIQUE,East Delhi</v>
+        <v>AMOHA TRENDZ,Surat</v>
       </c>
       <c r="D62" t="str">
-        <v>PKB 223 D</v>
+        <v>PKB 277</v>
       </c>
       <c r="E62" t="str">
-        <v>Pkb 223 Dupatta</v>
+        <v>Pkb 277</v>
+      </c>
+      <c r="F62" t="str">
+        <v>Mustard</v>
       </c>
       <c r="G62" t="str">
-        <v>23/04/2025</v>
+        <v>19/04/2025</v>
       </c>
       <c r="H62" t="str">
-        <v>CN/25-26/018</v>
+        <v>CN/25-26/025</v>
       </c>
       <c r="I62">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="J62">
-        <v>1155</v>
+        <v>15086.4</v>
       </c>
       <c r="K62" t="str">
         <v>Sales Return</v>
@@ -2248,150 +2305,117 @@
     </row>
     <row r="63">
       <c r="A63">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="B63" t="str">
-        <v>M/S BLOSSOM BOUTIQUE,East Delhi</v>
+        <v>AMOHA TRENDZ,Surat</v>
       </c>
       <c r="D63" t="str">
-        <v>PKB 223 P</v>
+        <v>PKB 277 (P+D)</v>
       </c>
       <c r="E63" t="str">
-        <v>Pkb 223 Pant</v>
+        <v>Pkb 277 (Pant &amp; Dupatta)</v>
       </c>
       <c r="G63" t="str">
-        <v>23/04/2025</v>
+        <v>19/04/2025</v>
       </c>
       <c r="H63" t="str">
-        <v>CN/25-26/018</v>
+        <v>CN/25-26/025</v>
       </c>
       <c r="I63">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="J63">
-        <v>1512</v>
+        <v>30139.2</v>
       </c>
       <c r="K63" t="str">
         <v>Sales Return</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64">
-        <v>7</v>
-      </c>
-      <c r="B64" t="str">
-        <v>M/S BLOSSOM BOUTIQUE,East Delhi</v>
-      </c>
-      <c r="D64" t="str">
-        <v>PKB 232</v>
-      </c>
-      <c r="E64" t="str">
-        <v>Pkb 232</v>
-      </c>
-      <c r="F64" t="str">
-        <v>Purple</v>
-      </c>
-      <c r="G64" t="str">
-        <v>23/04/2025</v>
-      </c>
       <c r="H64" t="str">
-        <v>CN/25-26/018</v>
+        <v>Total</v>
       </c>
       <c r="I64">
-        <v>3</v>
+        <v>1988</v>
       </c>
       <c r="J64">
-        <v>2992.5</v>
-      </c>
-      <c r="K64" t="str">
-        <v>Sales Return</v>
+        <v>1632792</v>
       </c>
     </row>
     <row r="65">
       <c r="A65">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B65" t="str">
-        <v>M/S BLOSSOM BOUTIQUE,East Delhi</v>
+        <v>ANAND APPARELS,Lucknow</v>
       </c>
       <c r="D65" t="str">
-        <v>PKB 232 D</v>
+        <v>PK 671</v>
       </c>
       <c r="E65" t="str">
-        <v>Pkb 232 Dupatta</v>
-      </c>
-      <c r="G65" t="str">
-        <v>23/04/2025</v>
+        <v>Pk 671</v>
+      </c>
+      <c r="F65" t="str">
+        <v>Grey</v>
+      </c>
+      <c r="G65" s="1" t="str">
+        <v>11/04/2025</v>
       </c>
       <c r="H65" t="str">
-        <v>CN/25-26/018</v>
+        <v>CN/25-26/012</v>
       </c>
       <c r="I65">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J65">
-        <v>1716.75</v>
+        <v>1562.4</v>
       </c>
       <c r="K65" t="str">
         <v>Sales Return</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66">
-        <v>9</v>
-      </c>
-      <c r="B66" t="str">
-        <v>M/S BLOSSOM BOUTIQUE,East Delhi</v>
-      </c>
-      <c r="D66" t="str">
-        <v>PKB 232 P</v>
-      </c>
-      <c r="E66" t="str">
-        <v>Pkb 232 Pant</v>
-      </c>
-      <c r="G66" t="str">
-        <v>23/04/2025</v>
-      </c>
       <c r="H66" t="str">
-        <v>CN/25-26/018</v>
+        <v>Total</v>
       </c>
       <c r="I66">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J66">
-        <v>2205</v>
-      </c>
-      <c r="K66" t="str">
-        <v>Sales Return</v>
+        <v>1562.4</v>
       </c>
     </row>
     <row r="67">
       <c r="A67">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B67" t="str">
-        <v>M/S BLOSSOM BOUTIQUE,East Delhi</v>
+        <v>ARSH TRENDZ,Surat</v>
+      </c>
+      <c r="C67" t="str">
+        <v>ABHINANDAN AGENCY</v>
       </c>
       <c r="D67" t="str">
-        <v>PKB 254</v>
+        <v>PK 553</v>
       </c>
       <c r="E67" t="str">
-        <v>Pkb 254</v>
+        <v>Pk 553</v>
       </c>
       <c r="F67" t="str">
-        <v>Grey</v>
-      </c>
-      <c r="G67" t="str">
-        <v>23/04/2025</v>
+        <v>Chiku</v>
+      </c>
+      <c r="G67" s="1" t="str">
+        <v>02/04/2025</v>
       </c>
       <c r="H67" t="str">
-        <v>CN/25-26/018</v>
+        <v>CN/25-26/004</v>
       </c>
       <c r="I67">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J67">
-        <v>732.9</v>
+        <v>8937.6</v>
       </c>
       <c r="K67" t="str">
         <v>Sales Return</v>
@@ -2399,117 +2423,174 @@
     </row>
     <row r="68">
       <c r="A68">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="B68" t="str">
-        <v>M/S BLOSSOM BOUTIQUE,East Delhi</v>
+        <v>ARSH TRENDZ,Surat</v>
+      </c>
+      <c r="C68" t="str">
+        <v>ABHINANDAN AGENCY</v>
       </c>
       <c r="D68" t="str">
-        <v>PKB 254 P+D</v>
+        <v>PK 576</v>
       </c>
       <c r="E68" t="str">
-        <v>Pkb 254 (Pant &amp; Dupatta)</v>
-      </c>
-      <c r="G68" t="str">
-        <v>23/04/2025</v>
+        <v>Pk 576</v>
+      </c>
+      <c r="F68" t="str">
+        <v>T.blue</v>
+      </c>
+      <c r="G68" s="1" t="str">
+        <v>02/04/2025</v>
       </c>
       <c r="H68" t="str">
-        <v>CN/25-26/018</v>
+        <v>CN/25-26/004</v>
       </c>
       <c r="I68">
         <v>1</v>
       </c>
       <c r="J68">
-        <v>731.85</v>
+        <v>2906.4</v>
       </c>
       <c r="K68" t="str">
         <v>Sales Return</v>
       </c>
     </row>
     <row r="69">
+      <c r="A69">
+        <v>3</v>
+      </c>
+      <c r="B69" t="str">
+        <v>ARSH TRENDZ,Surat</v>
+      </c>
+      <c r="C69" t="str">
+        <v>ABHINANDAN AGENCY</v>
+      </c>
+      <c r="D69" t="str">
+        <v>PK 577</v>
+      </c>
+      <c r="E69" t="str">
+        <v>Pk 577</v>
+      </c>
+      <c r="F69" t="str">
+        <v>Off White</v>
+      </c>
+      <c r="G69" s="1" t="str">
+        <v>02/04/2025</v>
+      </c>
       <c r="H69" t="str">
-        <v>Total</v>
+        <v>CN/25-26/004</v>
       </c>
       <c r="I69">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="J69">
-        <v>22096.2</v>
+        <v>2906.4</v>
+      </c>
+      <c r="K69" t="str">
+        <v>Sales Return</v>
       </c>
     </row>
     <row r="70">
       <c r="A70">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B70" t="str">
-        <v>M/S. MALAK FASHION,Kolkata</v>
+        <v>ARSH TRENDZ,Surat</v>
+      </c>
+      <c r="C70" t="str">
+        <v>ABHINANDAN AGENCY</v>
       </c>
       <c r="D70" t="str">
-        <v>KORA 60" / SU 06</v>
+        <v>PK 755</v>
       </c>
       <c r="E70" t="str">
-        <v>Kora 60" / Su 06</v>
+        <v>Pk 755</v>
       </c>
       <c r="F70" t="str">
-        <v>Rfd</v>
+        <v>Maroon</v>
       </c>
       <c r="G70" s="1" t="str">
-        <v>09/04/2025</v>
+        <v>02/04/2025</v>
       </c>
       <c r="H70" t="str">
-        <v>CN/25-26/002</v>
+        <v>CN/25-26/004</v>
       </c>
       <c r="I70">
-        <v>412.8</v>
+        <v>4</v>
       </c>
       <c r="J70">
-        <v>17337.6</v>
+        <v>12521.6</v>
       </c>
       <c r="K70" t="str">
-        <v>Others</v>
+        <v>Sales Return</v>
       </c>
     </row>
     <row r="71">
+      <c r="A71">
+        <v>5</v>
+      </c>
+      <c r="B71" t="str">
+        <v>ARSH TRENDZ,Surat</v>
+      </c>
+      <c r="C71" t="str">
+        <v>ABHINANDAN AGENCY</v>
+      </c>
+      <c r="D71" t="str">
+        <v>PK 755</v>
+      </c>
+      <c r="E71" t="str">
+        <v>Pk 755</v>
+      </c>
+      <c r="F71" t="str">
+        <v>Blue</v>
+      </c>
+      <c r="G71" s="1" t="str">
+        <v>02/04/2025</v>
+      </c>
       <c r="H71" t="str">
-        <v>Total</v>
+        <v>CN/25-26/004</v>
       </c>
       <c r="I71">
-        <v>412.8</v>
+        <v>4</v>
       </c>
       <c r="J71">
-        <v>17337.6</v>
+        <v>12521.6</v>
+      </c>
+      <c r="K71" t="str">
+        <v>Sales Return</v>
       </c>
     </row>
     <row r="72">
       <c r="A72">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B72" t="str">
-        <v>Mahi Sarees,Panch Mahals</v>
+        <v>ARSH TRENDZ,Surat</v>
       </c>
       <c r="C72" t="str">
-        <v>JIGAR TEXTILE AGENCY</v>
+        <v>ABHINANDAN AGENCY</v>
       </c>
       <c r="D72" t="str">
-        <v>PK 760</v>
+        <v>PK 758</v>
       </c>
       <c r="E72" t="str">
-        <v>Pk 760</v>
+        <v>Pk 758</v>
       </c>
       <c r="F72" t="str">
-        <v>Royal Blue</v>
-      </c>
-      <c r="G72" t="str">
-        <v>14/04/2025</v>
+        <v>Grey</v>
+      </c>
+      <c r="G72" s="1" t="str">
+        <v>02/04/2025</v>
       </c>
       <c r="H72" t="str">
-        <v>CN/25-26/013</v>
+        <v>CN/25-26/004</v>
       </c>
       <c r="I72">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J72">
-        <v>2010.4</v>
+        <v>5588.8</v>
       </c>
       <c r="K72" t="str">
         <v>Sales Return</v>
@@ -2517,80 +2598,104 @@
     </row>
     <row r="73">
       <c r="A73">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B73" t="str">
-        <v>Mahi Sarees,Panch Mahals</v>
+        <v>ARSH TRENDZ,Surat</v>
       </c>
       <c r="C73" t="str">
-        <v>JIGAR TEXTILE AGENCY</v>
+        <v>ABHINANDAN AGENCY</v>
       </c>
       <c r="D73" t="str">
-        <v>PK 760</v>
+        <v>PKB 215 B</v>
       </c>
       <c r="E73" t="str">
-        <v>Pk 760</v>
+        <v>Pkb 215 B</v>
       </c>
       <c r="F73" t="str">
-        <v>Bottle Green</v>
-      </c>
-      <c r="G73" t="str">
-        <v>14/04/2025</v>
+        <v>Chiku</v>
+      </c>
+      <c r="G73" s="1" t="str">
+        <v>02/04/2025</v>
       </c>
       <c r="H73" t="str">
-        <v>CN/25-26/013</v>
+        <v>CN/25-26/004</v>
       </c>
       <c r="I73">
         <v>1</v>
       </c>
       <c r="J73">
-        <v>2010.4</v>
+        <v>2234.4</v>
       </c>
       <c r="K73" t="str">
         <v>Sales Return</v>
       </c>
     </row>
     <row r="74">
+      <c r="A74">
+        <v>8</v>
+      </c>
+      <c r="B74" t="str">
+        <v>ARSH TRENDZ,Surat</v>
+      </c>
+      <c r="C74" t="str">
+        <v>ABHINANDAN AGENCY</v>
+      </c>
+      <c r="D74" t="str">
+        <v>PKB 291</v>
+      </c>
+      <c r="E74" t="str">
+        <v>Pkb 291</v>
+      </c>
+      <c r="F74" t="str">
+        <v>Blue</v>
+      </c>
+      <c r="G74" s="1" t="str">
+        <v>02/04/2025</v>
+      </c>
       <c r="H74" t="str">
-        <v>Total</v>
+        <v>CN/25-26/004</v>
       </c>
       <c r="I74">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J74">
-        <v>4020.8</v>
+        <v>12521.6</v>
+      </c>
+      <c r="K74" t="str">
+        <v>Sales Return</v>
       </c>
     </row>
     <row r="75">
       <c r="A75">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B75" t="str">
-        <v>RAJRISHI,Ahmedabad</v>
+        <v>ARSH TRENDZ,Surat</v>
       </c>
       <c r="C75" t="str">
-        <v>RAGHANI</v>
+        <v>ABHINANDAN AGENCY</v>
       </c>
       <c r="D75" t="str">
-        <v>PK 576</v>
+        <v>PKB 291</v>
       </c>
       <c r="E75" t="str">
-        <v>Pk 576</v>
+        <v>Pkb 291</v>
       </c>
       <c r="F75" t="str">
-        <v>Navy Blue</v>
-      </c>
-      <c r="G75" t="str">
-        <v>25/04/2025</v>
+        <v>Maroon</v>
+      </c>
+      <c r="G75" s="1" t="str">
+        <v>02/04/2025</v>
       </c>
       <c r="H75" t="str">
-        <v>CN/25-26/020</v>
+        <v>CN/25-26/004</v>
       </c>
       <c r="I75">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J75">
-        <v>939.75</v>
+        <v>12521.6</v>
       </c>
       <c r="K75" t="str">
         <v>Sales Return</v>
@@ -2598,31 +2703,34 @@
     </row>
     <row r="76">
       <c r="A76">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B76" t="str">
-        <v>RAJRISHI,Ahmedabad</v>
+        <v>ARSH TRENDZ,Surat</v>
       </c>
       <c r="C76" t="str">
-        <v>RAGHANI</v>
+        <v>ABHINANDAN AGENCY</v>
       </c>
       <c r="D76" t="str">
-        <v>PK 576 D</v>
+        <v>PKB 297</v>
       </c>
       <c r="E76" t="str">
-        <v>Pk 576 Dupatta</v>
-      </c>
-      <c r="G76" t="str">
-        <v>25/04/2025</v>
+        <v>Pkb 297</v>
+      </c>
+      <c r="F76" t="str">
+        <v>Aqua</v>
+      </c>
+      <c r="G76" s="1" t="str">
+        <v>02/04/2025</v>
       </c>
       <c r="H76" t="str">
-        <v>CN/25-26/020</v>
+        <v>CN/25-26/004</v>
       </c>
       <c r="I76">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J76">
-        <v>735</v>
+        <v>10281.6</v>
       </c>
       <c r="K76" t="str">
         <v>Sales Return</v>
@@ -2630,165 +2738,120 @@
     </row>
     <row r="77">
       <c r="A77">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B77" t="str">
-        <v>RAJRISHI,Ahmedabad</v>
+        <v>ARSH TRENDZ,Surat</v>
       </c>
       <c r="C77" t="str">
-        <v>RAGHANI</v>
+        <v>ABHINANDAN AGENCY</v>
       </c>
       <c r="D77" t="str">
-        <v>PK 576 P</v>
+        <v>PKB 297</v>
       </c>
       <c r="E77" t="str">
-        <v>Pk 576 Pant</v>
-      </c>
-      <c r="G77" t="str">
-        <v>25/04/2025</v>
+        <v>Pkb 297</v>
+      </c>
+      <c r="F77" t="str">
+        <v>Purple</v>
+      </c>
+      <c r="G77" s="1" t="str">
+        <v>02/04/2025</v>
       </c>
       <c r="H77" t="str">
-        <v>CN/25-26/020</v>
+        <v>CN/25-26/004</v>
       </c>
       <c r="I77">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J77">
-        <v>735</v>
+        <v>10281.6</v>
       </c>
       <c r="K77" t="str">
         <v>Sales Return</v>
       </c>
     </row>
     <row r="78">
-      <c r="A78">
-        <v>4</v>
-      </c>
-      <c r="B78" t="str">
-        <v>RAJRISHI,Ahmedabad</v>
-      </c>
-      <c r="C78" t="str">
-        <v>RAGHANI</v>
-      </c>
-      <c r="D78" t="str">
-        <v>PK 606</v>
-      </c>
-      <c r="E78" t="str">
-        <v>Pk 606</v>
-      </c>
-      <c r="F78" t="str">
-        <v>Aqua</v>
-      </c>
-      <c r="G78" t="str">
-        <v>17/04/2025</v>
-      </c>
       <c r="H78" t="str">
-        <v>CN/25-26/015</v>
+        <v>Total</v>
       </c>
       <c r="I78">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="J78">
-        <v>939.75</v>
-      </c>
-      <c r="K78" t="str">
-        <v>Sales Return</v>
+        <v>93223.2</v>
       </c>
     </row>
     <row r="79">
       <c r="A79">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B79" t="str">
-        <v>RAJRISHI,Ahmedabad</v>
-      </c>
-      <c r="C79" t="str">
-        <v>RAGHANI</v>
+        <v>BACHOOMAL APPARELS PRIVATE LIMITED,Agra</v>
       </c>
       <c r="D79" t="str">
-        <v>PK 606 (P+D)</v>
+        <v>PK 561</v>
       </c>
       <c r="E79" t="str">
-        <v>Pk 606 (Pant &amp; Dupatta)</v>
+        <v>Pk 561</v>
+      </c>
+      <c r="F79" t="str">
+        <v>T.blue</v>
       </c>
       <c r="G79" t="str">
         <v>17/04/2025</v>
       </c>
       <c r="H79" t="str">
-        <v>CN/25-26/015</v>
+        <v>CN/25-26/014</v>
       </c>
       <c r="I79">
         <v>1</v>
       </c>
       <c r="J79">
-        <v>735</v>
+        <v>2122.4</v>
       </c>
       <c r="K79" t="str">
         <v>Sales Return</v>
       </c>
     </row>
     <row r="80">
-      <c r="A80">
-        <v>6</v>
-      </c>
-      <c r="B80" t="str">
-        <v>RAJRISHI,Ahmedabad</v>
-      </c>
-      <c r="C80" t="str">
-        <v>RAGHANI</v>
-      </c>
-      <c r="D80" t="str">
-        <v>PKB 212</v>
-      </c>
-      <c r="E80" t="str">
-        <v>Pkb 212</v>
-      </c>
-      <c r="F80" t="str">
-        <v>Mouse</v>
-      </c>
-      <c r="G80" t="str">
-        <v>25/04/2025</v>
-      </c>
       <c r="H80" t="str">
-        <v>CN/25-26/020</v>
+        <v>Total</v>
       </c>
       <c r="I80">
         <v>1</v>
       </c>
       <c r="J80">
-        <v>735</v>
-      </c>
-      <c r="K80" t="str">
-        <v>Sales Return</v>
+        <v>2122.4</v>
       </c>
     </row>
     <row r="81">
       <c r="A81">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B81" t="str">
-        <v>RAJRISHI,Ahmedabad</v>
-      </c>
-      <c r="C81" t="str">
-        <v>RAGHANI</v>
+        <v>BHALA HANDLOOMS PRIVATE LIMITED,Hyderabad</v>
       </c>
       <c r="D81" t="str">
-        <v>PKB 212 (P+D)</v>
+        <v>PK 522</v>
       </c>
       <c r="E81" t="str">
-        <v>Pkb 212 (Pant &amp; Dupatta)</v>
+        <v>Pk 522</v>
+      </c>
+      <c r="F81" t="str">
+        <v>Lilac</v>
       </c>
       <c r="G81" t="str">
         <v>25/04/2025</v>
       </c>
       <c r="H81" t="str">
-        <v>CN/25-26/020</v>
+        <v>CN/25-26/028</v>
       </c>
       <c r="I81">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="J81">
-        <v>729.75</v>
+        <v>22554</v>
       </c>
       <c r="K81" t="str">
         <v>Sales Return</v>
@@ -2796,34 +2859,31 @@
     </row>
     <row r="82">
       <c r="A82">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B82" t="str">
-        <v>RAJRISHI,Ahmedabad</v>
-      </c>
-      <c r="C82" t="str">
-        <v>RAGHANI</v>
+        <v>BHALA HANDLOOMS PRIVATE LIMITED,Hyderabad</v>
       </c>
       <c r="D82" t="str">
-        <v>PKB 223</v>
+        <v>PK 522</v>
       </c>
       <c r="E82" t="str">
-        <v>Pkb 223</v>
+        <v>Pk 522</v>
       </c>
       <c r="F82" t="str">
-        <v>Onion</v>
-      </c>
-      <c r="G82" s="1" t="str">
-        <v>07/04/2025</v>
+        <v>Chiku</v>
+      </c>
+      <c r="G82" t="str">
+        <v>25/04/2025</v>
       </c>
       <c r="H82" t="str">
-        <v>CN/25-26/008</v>
+        <v>CN/25-26/028</v>
       </c>
       <c r="I82">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="J82">
-        <v>761.25</v>
+        <v>22554</v>
       </c>
       <c r="K82" t="str">
         <v>Sales Return</v>
@@ -2831,31 +2891,31 @@
     </row>
     <row r="83">
       <c r="A83">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B83" t="str">
-        <v>RAJRISHI,Ahmedabad</v>
-      </c>
-      <c r="C83" t="str">
-        <v>RAGHANI</v>
+        <v>BHALA HANDLOOMS PRIVATE LIMITED,Hyderabad</v>
       </c>
       <c r="D83" t="str">
-        <v>PKB 223 D</v>
+        <v>PK 522</v>
       </c>
       <c r="E83" t="str">
-        <v>Pkb 223 Dupatta</v>
-      </c>
-      <c r="G83" s="1" t="str">
-        <v>07/04/2025</v>
+        <v>Pk 522</v>
+      </c>
+      <c r="F83" t="str">
+        <v>Aqua</v>
+      </c>
+      <c r="G83" t="str">
+        <v>25/04/2025</v>
       </c>
       <c r="H83" t="str">
-        <v>CN/25-26/008</v>
+        <v>CN/25-26/028</v>
       </c>
       <c r="I83">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="J83">
-        <v>577.5</v>
+        <v>22554</v>
       </c>
       <c r="K83" t="str">
         <v>Sales Return</v>
@@ -2863,77 +2923,92 @@
     </row>
     <row r="84">
       <c r="A84">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B84" t="str">
-        <v>RAJRISHI,Ahmedabad</v>
-      </c>
-      <c r="C84" t="str">
-        <v>RAGHANI</v>
+        <v>BHALA HANDLOOMS PRIVATE LIMITED,Hyderabad</v>
       </c>
       <c r="D84" t="str">
-        <v>PKB 223 P</v>
+        <v>PK 522 (P+D)</v>
       </c>
       <c r="E84" t="str">
-        <v>Pkb 223 Pant</v>
-      </c>
-      <c r="G84" s="1" t="str">
-        <v>07/04/2025</v>
+        <v>Pk 522 (Pant &amp; Dupatta)</v>
+      </c>
+      <c r="G84" t="str">
+        <v>25/04/2025</v>
       </c>
       <c r="H84" t="str">
-        <v>CN/25-26/008</v>
+        <v>CN/25-26/028</v>
       </c>
       <c r="I84">
-        <v>1</v>
+        <v>72</v>
       </c>
       <c r="J84">
-        <v>756</v>
+        <v>52920</v>
       </c>
       <c r="K84" t="str">
         <v>Sales Return</v>
       </c>
     </row>
     <row r="85">
+      <c r="A85">
+        <v>5</v>
+      </c>
+      <c r="B85" t="str">
+        <v>BHALA HANDLOOMS PRIVATE LIMITED,Hyderabad</v>
+      </c>
+      <c r="D85" t="str">
+        <v>PK 526</v>
+      </c>
+      <c r="E85" t="str">
+        <v>Pk 526</v>
+      </c>
+      <c r="F85" t="str">
+        <v>Onion</v>
+      </c>
+      <c r="G85" t="str">
+        <v>25/04/2025</v>
+      </c>
       <c r="H85" t="str">
-        <v>Total</v>
+        <v>CN/25-26/028</v>
       </c>
       <c r="I85">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="J85">
-        <v>7644</v>
+        <v>11277</v>
+      </c>
+      <c r="K85" t="str">
+        <v>Sales Return</v>
       </c>
     </row>
     <row r="86">
       <c r="A86">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B86" t="str">
-        <v>SEQUENCE STYLER,Surat</v>
-      </c>
-      <c r="C86" t="str">
-        <v>RAGHANI</v>
+        <v>BHALA HANDLOOMS PRIVATE LIMITED,Hyderabad</v>
       </c>
       <c r="D86" t="str">
-        <v>PK 554</v>
+        <v>PK 526</v>
       </c>
       <c r="E86" t="str">
-        <v>Pk 554</v>
+        <v>Pk 526</v>
       </c>
       <c r="F86" t="str">
-        <v>Green</v>
+        <v>Grey</v>
       </c>
       <c r="G86" t="str">
-        <v>19/04/2025</v>
+        <v>25/04/2025</v>
       </c>
       <c r="H86" t="str">
-        <v>CN/25-26/016</v>
+        <v>CN/25-26/028</v>
       </c>
       <c r="I86">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J86">
-        <v>942.9</v>
+        <v>11277</v>
       </c>
       <c r="K86" t="str">
         <v>Sales Return</v>
@@ -2941,31 +3016,31 @@
     </row>
     <row r="87">
       <c r="A87">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B87" t="str">
-        <v>SEQUENCE STYLER,Surat</v>
-      </c>
-      <c r="C87" t="str">
-        <v>RAGHANI</v>
+        <v>BHALA HANDLOOMS PRIVATE LIMITED,Hyderabad</v>
       </c>
       <c r="D87" t="str">
-        <v>PK 554 (P+D)</v>
+        <v>PK 526</v>
       </c>
       <c r="E87" t="str">
-        <v>Pk 554 (Pant &amp; Dupatta)</v>
+        <v>Pk 526</v>
+      </c>
+      <c r="F87" t="str">
+        <v>Green</v>
       </c>
       <c r="G87" t="str">
-        <v>19/04/2025</v>
+        <v>25/04/2025</v>
       </c>
       <c r="H87" t="str">
-        <v>CN/25-26/016</v>
+        <v>CN/25-26/028</v>
       </c>
       <c r="I87">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J87">
-        <v>941.85</v>
+        <v>11277</v>
       </c>
       <c r="K87" t="str">
         <v>Sales Return</v>
@@ -2973,34 +3048,28 @@
     </row>
     <row r="88">
       <c r="A88">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B88" t="str">
-        <v>SEQUENCE STYLER,Surat</v>
-      </c>
-      <c r="C88" t="str">
-        <v>RAGHANI</v>
+        <v>BHALA HANDLOOMS PRIVATE LIMITED,Hyderabad</v>
       </c>
       <c r="D88" t="str">
-        <v>PK 580</v>
+        <v>PK 526 (P+D)</v>
       </c>
       <c r="E88" t="str">
-        <v>Pk 580</v>
-      </c>
-      <c r="F88" t="str">
-        <v>Rani</v>
+        <v>Pk 526 (Pant &amp; Dupatta)</v>
       </c>
       <c r="G88" t="str">
-        <v>19/04/2025</v>
+        <v>25/04/2025</v>
       </c>
       <c r="H88" t="str">
-        <v>CN/25-26/016</v>
+        <v>CN/25-26/028</v>
       </c>
       <c r="I88">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="J88">
-        <v>942.9</v>
+        <v>26460</v>
       </c>
       <c r="K88" t="str">
         <v>Sales Return</v>
@@ -3008,77 +3077,95 @@
     </row>
     <row r="89">
       <c r="A89">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B89" t="str">
-        <v>SEQUENCE STYLER,Surat</v>
-      </c>
-      <c r="C89" t="str">
-        <v>RAGHANI</v>
+        <v>BHALA HANDLOOMS PRIVATE LIMITED,Hyderabad</v>
       </c>
       <c r="D89" t="str">
-        <v>PK 580 (P+D)</v>
+        <v>PK 766</v>
       </c>
       <c r="E89" t="str">
-        <v>Pk 580 (Pant &amp; Dupatta)</v>
+        <v>Pk 766</v>
+      </c>
+      <c r="F89" t="str">
+        <v>Rust</v>
       </c>
       <c r="G89" t="str">
-        <v>19/04/2025</v>
+        <v>25/04/2025</v>
       </c>
       <c r="H89" t="str">
-        <v>CN/25-26/016</v>
+        <v>CN/25-26/027</v>
       </c>
       <c r="I89">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="J89">
-        <v>941.85</v>
+        <v>10371.9</v>
       </c>
       <c r="K89" t="str">
         <v>Sales Return</v>
       </c>
     </row>
     <row r="90">
+      <c r="A90">
+        <v>10</v>
+      </c>
+      <c r="B90" t="str">
+        <v>BHALA HANDLOOMS PRIVATE LIMITED,Hyderabad</v>
+      </c>
+      <c r="D90" t="str">
+        <v>PK 766</v>
+      </c>
+      <c r="E90" t="str">
+        <v>Pk 766</v>
+      </c>
+      <c r="F90" t="str">
+        <v>Mouse</v>
+      </c>
+      <c r="G90" t="str">
+        <v>25/04/2025</v>
+      </c>
       <c r="H90" t="str">
-        <v>Total</v>
+        <v>CN/25-26/027</v>
       </c>
       <c r="I90">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="J90">
-        <v>3769.5</v>
+        <v>18858</v>
+      </c>
+      <c r="K90" t="str">
+        <v>Sales Return</v>
       </c>
     </row>
     <row r="91">
       <c r="A91">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B91" t="str">
-        <v>Shree Mahaveer NX,Surat</v>
-      </c>
-      <c r="C91" t="str">
-        <v>ABHINANDAN AGENCY</v>
+        <v>BHALA HANDLOOMS PRIVATE LIMITED,Hyderabad</v>
       </c>
       <c r="D91" t="str">
-        <v>PK 561 B</v>
+        <v>PK 766</v>
       </c>
       <c r="E91" t="str">
-        <v>Pk 561 B</v>
+        <v>Pk 766</v>
       </c>
       <c r="F91" t="str">
-        <v>Rani</v>
-      </c>
-      <c r="G91" s="1" t="str">
-        <v>02/04/2025</v>
+        <v>Turquoise</v>
+      </c>
+      <c r="G91" t="str">
+        <v>25/04/2025</v>
       </c>
       <c r="H91" t="str">
-        <v>CN/25-26/005</v>
+        <v>CN/25-26/027</v>
       </c>
       <c r="I91">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="J91">
-        <v>3351.6</v>
+        <v>11314.8</v>
       </c>
       <c r="K91" t="str">
         <v>Sales Return</v>
@@ -3086,31 +3173,28 @@
     </row>
     <row r="92">
       <c r="A92">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B92" t="str">
-        <v>Shree Mahaveer NX,Surat</v>
-      </c>
-      <c r="C92" t="str">
-        <v>ABHINANDAN AGENCY</v>
+        <v>BHALA HANDLOOMS PRIVATE LIMITED,Hyderabad</v>
       </c>
       <c r="D92" t="str">
-        <v>PK 561 B (P+D)</v>
+        <v>PK 766 (P+D)</v>
       </c>
       <c r="E92" t="str">
-        <v>Pk 561 B (Pant &amp; Dupatta)</v>
-      </c>
-      <c r="G92" s="1" t="str">
-        <v>02/04/2025</v>
+        <v>Pk 766 (Pant &amp; Dupatta)</v>
+      </c>
+      <c r="G92" t="str">
+        <v>25/04/2025</v>
       </c>
       <c r="H92" t="str">
-        <v>CN/25-26/005</v>
+        <v>CN/25-26/027</v>
       </c>
       <c r="I92">
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="J92">
-        <v>3347.4</v>
+        <v>40499.55</v>
       </c>
       <c r="K92" t="str">
         <v>Sales Return</v>
@@ -3118,34 +3202,31 @@
     </row>
     <row r="93">
       <c r="A93">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B93" t="str">
-        <v>Shree Mahaveer NX,Surat</v>
-      </c>
-      <c r="C93" t="str">
-        <v>ABHINANDAN AGENCY</v>
+        <v>BHALA HANDLOOMS PRIVATE LIMITED,Hyderabad</v>
       </c>
       <c r="D93" t="str">
-        <v>PKB 221</v>
+        <v>PKB 225</v>
       </c>
       <c r="E93" t="str">
-        <v>Pkb 221</v>
+        <v>Pkb 225</v>
       </c>
       <c r="F93" t="str">
-        <v>T.blue</v>
-      </c>
-      <c r="G93" s="1" t="str">
-        <v>02/04/2025</v>
+        <v>Mouse</v>
+      </c>
+      <c r="G93" t="str">
+        <v>25/04/2025</v>
       </c>
       <c r="H93" t="str">
-        <v>CN/25-26/005</v>
+        <v>CN/25-26/028</v>
       </c>
       <c r="I93">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J93">
-        <v>1044.75</v>
+        <v>7875</v>
       </c>
       <c r="K93" t="str">
         <v>Sales Return</v>
@@ -3153,31 +3234,31 @@
     </row>
     <row r="94">
       <c r="A94">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="B94" t="str">
-        <v>Shree Mahaveer NX,Surat</v>
-      </c>
-      <c r="C94" t="str">
-        <v>ABHINANDAN AGENCY</v>
+        <v>BHALA HANDLOOMS PRIVATE LIMITED,Hyderabad</v>
       </c>
       <c r="D94" t="str">
-        <v>PKB 221 D</v>
+        <v>PKB 225</v>
       </c>
       <c r="E94" t="str">
-        <v>Pkb 221 Dupatta</v>
-      </c>
-      <c r="G94" s="1" t="str">
-        <v>02/04/2025</v>
+        <v>Pkb 225</v>
+      </c>
+      <c r="F94" t="str">
+        <v>T.blue</v>
+      </c>
+      <c r="G94" t="str">
+        <v>25/04/2025</v>
       </c>
       <c r="H94" t="str">
-        <v>CN/25-26/005</v>
+        <v>CN/25-26/028</v>
       </c>
       <c r="I94">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J94">
-        <v>855.75</v>
+        <v>4725</v>
       </c>
       <c r="K94" t="str">
         <v>Sales Return</v>
@@ -3185,202 +3266,184 @@
     </row>
     <row r="95">
       <c r="A95">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B95" t="str">
-        <v>Shree Mahaveer NX,Surat</v>
-      </c>
-      <c r="C95" t="str">
-        <v>ABHINANDAN AGENCY</v>
+        <v>BHALA HANDLOOMS PRIVATE LIMITED,Hyderabad</v>
       </c>
       <c r="D95" t="str">
-        <v>PKB 221 P</v>
+        <v>PKB 225 (P+D)</v>
       </c>
       <c r="E95" t="str">
-        <v>Pkb 221 Pant</v>
-      </c>
-      <c r="G95" s="1" t="str">
-        <v>02/04/2025</v>
+        <v>Pkb 225 (Pant &amp; Dupatta)</v>
+      </c>
+      <c r="G95" t="str">
+        <v>25/04/2025</v>
       </c>
       <c r="H95" t="str">
-        <v>CN/25-26/005</v>
+        <v>CN/25-26/028</v>
       </c>
       <c r="I95">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="J95">
-        <v>1034.25</v>
+        <v>12516</v>
       </c>
       <c r="K95" t="str">
         <v>Sales Return</v>
       </c>
     </row>
     <row r="96">
-      <c r="A96">
-        <v>6</v>
-      </c>
-      <c r="B96" t="str">
-        <v>Shree Mahaveer NX,Surat</v>
-      </c>
-      <c r="C96" t="str">
-        <v>ABHINANDAN AGENCY</v>
-      </c>
-      <c r="D96" t="str">
-        <v>PKB 230</v>
-      </c>
-      <c r="E96" t="str">
-        <v>Pkb 230</v>
-      </c>
-      <c r="F96" t="str">
-        <v>Cherry</v>
-      </c>
-      <c r="G96" s="1" t="str">
-        <v>02/04/2025</v>
-      </c>
       <c r="H96" t="str">
-        <v>CN/25-26/005</v>
+        <v>Total</v>
       </c>
       <c r="I96">
-        <v>4</v>
+        <v>334</v>
       </c>
       <c r="J96">
-        <v>4191.6</v>
-      </c>
-      <c r="K96" t="str">
-        <v>Sales Return</v>
+        <v>287033.25</v>
       </c>
     </row>
     <row r="97">
       <c r="A97">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B97" t="str">
-        <v>Shree Mahaveer NX,Surat</v>
+        <v>BHOOMI DESIGNERS,Jaipur</v>
       </c>
       <c r="C97" t="str">
-        <v>ABHINANDAN AGENCY</v>
+        <v>RAGHANI</v>
       </c>
       <c r="D97" t="str">
-        <v>PKB 230 (P+D)</v>
+        <v>PKB 228</v>
       </c>
       <c r="E97" t="str">
-        <v>Pkb 230 (Pant &amp; Dupatta)</v>
-      </c>
-      <c r="G97" s="1" t="str">
-        <v>02/04/2025</v>
+        <v>Pkb 228</v>
+      </c>
+      <c r="F97" t="str">
+        <v>Wine</v>
+      </c>
+      <c r="G97" t="str">
+        <v>21/04/2025</v>
       </c>
       <c r="H97" t="str">
-        <v>CN/25-26/005</v>
+        <v>CN/25-26/017</v>
       </c>
       <c r="I97">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J97">
-        <v>4187.4</v>
+        <v>1885.8</v>
       </c>
       <c r="K97" t="str">
         <v>Sales Return</v>
       </c>
     </row>
     <row r="98">
+      <c r="A98">
+        <v>2</v>
+      </c>
+      <c r="B98" t="str">
+        <v>BHOOMI DESIGNERS,Jaipur</v>
+      </c>
+      <c r="C98" t="str">
+        <v>RAGHANI</v>
+      </c>
+      <c r="D98" t="str">
+        <v>PKB 228</v>
+      </c>
+      <c r="E98" t="str">
+        <v>Pkb 228</v>
+      </c>
+      <c r="F98" t="str">
+        <v>Rani</v>
+      </c>
+      <c r="G98" t="str">
+        <v>21/04/2025</v>
+      </c>
       <c r="H98" t="str">
-        <v>Total</v>
+        <v>CN/25-26/017</v>
       </c>
       <c r="I98">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="J98">
-        <v>18012.75</v>
+        <v>2828.7</v>
+      </c>
+      <c r="K98" t="str">
+        <v>Sales Return</v>
       </c>
     </row>
     <row r="99">
       <c r="A99">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B99" t="str">
-        <v>SUNDARI CREATIONS,East Delhi</v>
+        <v>BHOOMI DESIGNERS,Jaipur</v>
+      </c>
+      <c r="C99" t="str">
+        <v>RAGHANI</v>
       </c>
       <c r="D99" t="str">
-        <v>PD</v>
+        <v>PKB 228 (P+D)</v>
       </c>
       <c r="E99" t="str">
-        <v>Pant &amp; Dupatta</v>
-      </c>
-      <c r="G99" s="1" t="str">
-        <v>08/04/2025</v>
+        <v>Pkb 228 (Pant &amp; Dupatta)</v>
+      </c>
+      <c r="G99" t="str">
+        <v>21/04/2025</v>
       </c>
       <c r="H99" t="str">
-        <v>CN/25-26/009</v>
+        <v>CN/25-26/017</v>
       </c>
       <c r="I99">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J99">
-        <v>3675</v>
+        <v>4709.25</v>
       </c>
       <c r="K99" t="str">
         <v>Sales Return</v>
       </c>
     </row>
     <row r="100">
-      <c r="A100">
-        <v>2</v>
-      </c>
-      <c r="B100" t="str">
-        <v>SUNDARI CREATIONS,East Delhi</v>
-      </c>
-      <c r="D100" t="str">
-        <v>PK 558</v>
-      </c>
-      <c r="E100" t="str">
-        <v>Pk 558</v>
-      </c>
-      <c r="F100" t="str">
-        <v>Mouse</v>
-      </c>
-      <c r="G100" s="1" t="str">
-        <v>08/04/2025</v>
-      </c>
       <c r="H100" t="str">
-        <v>CN/25-26/009</v>
+        <v>Total</v>
       </c>
       <c r="I100">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="J100">
-        <v>5638.5</v>
-      </c>
-      <c r="K100" t="str">
-        <v>Sales Return</v>
+        <v>9423.75</v>
       </c>
     </row>
     <row r="101">
       <c r="A101">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B101" t="str">
-        <v>SUNDARI CREATIONS,East Delhi</v>
+        <v>Blessings Apparels,East Delhi</v>
+      </c>
+      <c r="C101" t="str">
+        <v>RAGHANI</v>
       </c>
       <c r="D101" t="str">
-        <v>PK 558</v>
+        <v>PD</v>
       </c>
       <c r="E101" t="str">
-        <v>Pk 558</v>
-      </c>
-      <c r="F101" t="str">
-        <v>Cherry</v>
-      </c>
-      <c r="G101" s="1" t="str">
-        <v>08/04/2025</v>
+        <v>Pant &amp; Dupatta</v>
+      </c>
+      <c r="G101" t="str">
+        <v>25/04/2025</v>
       </c>
       <c r="H101" t="str">
-        <v>CN/25-26/009</v>
+        <v>CN/25-26/021</v>
       </c>
       <c r="I101">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J101">
-        <v>5638.5</v>
+        <v>630</v>
       </c>
       <c r="K101" t="str">
         <v>Sales Return</v>
@@ -3388,28 +3451,34 @@
     </row>
     <row r="102">
       <c r="A102">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B102" t="str">
-        <v>SUNDARI CREATIONS,East Delhi</v>
+        <v>Blessings Apparels,East Delhi</v>
+      </c>
+      <c r="C102" t="str">
+        <v>RAGHANI</v>
       </c>
       <c r="D102" t="str">
-        <v>PK 558 (P+D)</v>
+        <v>PK 524</v>
       </c>
       <c r="E102" t="str">
-        <v>Pk 558 (Pant &amp; Dupatta)</v>
+        <v>Pk 524</v>
+      </c>
+      <c r="F102" t="str">
+        <v>Chiku</v>
       </c>
       <c r="G102" s="1" t="str">
-        <v>08/04/2025</v>
+        <v>09/04/2025</v>
       </c>
       <c r="H102" t="str">
-        <v>CN/25-26/009</v>
+        <v>CN/25-26/011</v>
       </c>
       <c r="I102">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="J102">
-        <v>3780</v>
+        <v>939.75</v>
       </c>
       <c r="K102" t="str">
         <v>Sales Return</v>
@@ -3417,31 +3486,31 @@
     </row>
     <row r="103">
       <c r="A103">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B103" t="str">
-        <v>SUNDARI CREATIONS,East Delhi</v>
+        <v>Blessings Apparels,East Delhi</v>
+      </c>
+      <c r="C103" t="str">
+        <v>RAGHANI</v>
       </c>
       <c r="D103" t="str">
-        <v>PK 697</v>
+        <v>PK 524 (P+D)</v>
       </c>
       <c r="E103" t="str">
-        <v>Pk 697</v>
-      </c>
-      <c r="F103" t="str">
-        <v>Aqua</v>
+        <v>Pk 524 (Pant &amp; Dupatta)</v>
       </c>
       <c r="G103" s="1" t="str">
-        <v>08/04/2025</v>
+        <v>09/04/2025</v>
       </c>
       <c r="H103" t="str">
-        <v>CN/25-26/009</v>
+        <v>CN/25-26/011</v>
       </c>
       <c r="I103">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J103">
-        <v>4179</v>
+        <v>735</v>
       </c>
       <c r="K103" t="str">
         <v>Sales Return</v>
@@ -3449,92 +3518,80 @@
     </row>
     <row r="104">
       <c r="A104">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B104" t="str">
-        <v>SUNDARI CREATIONS,East Delhi</v>
+        <v>Blessings Apparels,East Delhi</v>
+      </c>
+      <c r="C104" t="str">
+        <v>RAGHANI</v>
       </c>
       <c r="D104" t="str">
-        <v>PK 697</v>
+        <v>PK 562</v>
       </c>
       <c r="E104" t="str">
-        <v>Pk 697</v>
+        <v>Pk 562</v>
       </c>
       <c r="F104" t="str">
-        <v>Onion</v>
-      </c>
-      <c r="G104" s="1" t="str">
-        <v>08/04/2025</v>
+        <v>Bottle Green</v>
+      </c>
+      <c r="G104" t="str">
+        <v>25/04/2025</v>
       </c>
       <c r="H104" t="str">
-        <v>CN/25-26/009</v>
+        <v>CN/25-26/021</v>
       </c>
       <c r="I104">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J104">
-        <v>4179</v>
+        <v>939.75</v>
       </c>
       <c r="K104" t="str">
         <v>Sales Return</v>
       </c>
     </row>
     <row r="105">
-      <c r="A105">
-        <v>7</v>
-      </c>
-      <c r="B105" t="str">
-        <v>SUNDARI CREATIONS,East Delhi</v>
-      </c>
-      <c r="D105" t="str">
-        <v>PK 697</v>
-      </c>
-      <c r="E105" t="str">
-        <v>Pk 697</v>
-      </c>
-      <c r="F105" t="str">
-        <v>Yellow</v>
-      </c>
-      <c r="G105" s="1" t="str">
-        <v>08/04/2025</v>
-      </c>
       <c r="H105" t="str">
-        <v>CN/25-26/009</v>
+        <v>Total</v>
       </c>
       <c r="I105">
         <v>4</v>
       </c>
       <c r="J105">
-        <v>4179</v>
-      </c>
-      <c r="K105" t="str">
-        <v>Sales Return</v>
+        <v>3244.5</v>
       </c>
     </row>
     <row r="106">
       <c r="A106">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B106" t="str">
-        <v>SUNDARI CREATIONS,East Delhi</v>
+        <v>BOMBAY EMPORIUM,Pune</v>
+      </c>
+      <c r="C106" t="str">
+        <v>ABHINANDAN AGENCY</v>
       </c>
       <c r="D106" t="str">
-        <v>PK 697 (P+D)</v>
+        <v>PK 802</v>
       </c>
       <c r="E106" t="str">
-        <v>Pk 697 (Pant &amp; Dupatta)</v>
-      </c>
-      <c r="G106" s="1" t="str">
-        <v>08/04/2025</v>
+        <v>Pk 802</v>
+      </c>
+      <c r="F106" t="str">
+        <v>Purple</v>
+      </c>
+      <c r="G106" t="str">
+        <v>22/04/2025</v>
       </c>
       <c r="H106" t="str">
-        <v>CN/25-26/009</v>
+        <v>CN/25-26/003</v>
       </c>
       <c r="I106">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="J106">
-        <v>7560</v>
+        <v>822.94</v>
       </c>
       <c r="K106" t="str">
         <v>Sales Return</v>
@@ -3542,31 +3599,31 @@
     </row>
     <row r="107">
       <c r="A107">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B107" t="str">
-        <v>SUNDARI CREATIONS,East Delhi</v>
+        <v>BOMBAY EMPORIUM,Pune</v>
+      </c>
+      <c r="C107" t="str">
+        <v>ABHINANDAN AGENCY</v>
       </c>
       <c r="D107" t="str">
-        <v>PKB 250</v>
+        <v>PK 802 D</v>
       </c>
       <c r="E107" t="str">
-        <v>Pkb 250</v>
-      </c>
-      <c r="F107" t="str">
-        <v>Mustard</v>
-      </c>
-      <c r="G107" s="1" t="str">
-        <v>08/04/2025</v>
+        <v>Pk 802 Dupatta</v>
+      </c>
+      <c r="G107" t="str">
+        <v>22/04/2025</v>
       </c>
       <c r="H107" t="str">
-        <v>CN/25-26/009</v>
+        <v>CN/25-26/003</v>
       </c>
       <c r="I107">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J107">
-        <v>2819.25</v>
+        <v>648.38</v>
       </c>
       <c r="K107" t="str">
         <v>Sales Return</v>
@@ -3574,28 +3631,31 @@
     </row>
     <row r="108">
       <c r="A108">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B108" t="str">
-        <v>SUNDARI CREATIONS,East Delhi</v>
+        <v>BOMBAY EMPORIUM,Pune</v>
+      </c>
+      <c r="C108" t="str">
+        <v>ABHINANDAN AGENCY</v>
       </c>
       <c r="D108" t="str">
-        <v>PKB 250 (P+D)</v>
+        <v>PK 802 P</v>
       </c>
       <c r="E108" t="str">
-        <v>Pkb 250 (Pant &amp; Dupatta)</v>
-      </c>
-      <c r="G108" s="1" t="str">
-        <v>08/04/2025</v>
+        <v>Pk 802 Pant</v>
+      </c>
+      <c r="G108" t="str">
+        <v>22/04/2025</v>
       </c>
       <c r="H108" t="str">
-        <v>CN/25-26/009</v>
+        <v>CN/25-26/003</v>
       </c>
       <c r="I108">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J108">
-        <v>2205</v>
+        <v>817.95</v>
       </c>
       <c r="K108" t="str">
         <v>Sales Return</v>
@@ -3603,208 +3663,2532 @@
     </row>
     <row r="109">
       <c r="A109">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B109" t="str">
-        <v>SUNDARI CREATIONS,East Delhi</v>
+        <v>BOMBAY EMPORIUM,Pune</v>
+      </c>
+      <c r="C109" t="str">
+        <v>ABHINANDAN AGENCY</v>
       </c>
       <c r="D109" t="str">
-        <v>PKB 287</v>
+        <v>PKB 248</v>
       </c>
       <c r="E109" t="str">
-        <v>Pkb 287</v>
+        <v>Pkb 248</v>
       </c>
       <c r="F109" t="str">
-        <v>Single</v>
-      </c>
-      <c r="G109" s="1" t="str">
-        <v>08/04/2025</v>
+        <v>Green</v>
+      </c>
+      <c r="G109" t="str">
+        <v>22/04/2025</v>
       </c>
       <c r="H109" t="str">
-        <v>CN/25-26/009</v>
+        <v>CN/25-26/003</v>
       </c>
       <c r="I109">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J109">
-        <v>6578.25</v>
+        <v>3391.52</v>
       </c>
       <c r="K109" t="str">
         <v>Sales Return</v>
       </c>
     </row>
     <row r="110">
+      <c r="A110">
+        <v>5</v>
+      </c>
+      <c r="B110" t="str">
+        <v>BOMBAY EMPORIUM,Pune</v>
+      </c>
+      <c r="C110" t="str">
+        <v>ABHINANDAN AGENCY</v>
+      </c>
+      <c r="D110" t="str">
+        <v>PKB 248 D</v>
+      </c>
+      <c r="E110" t="str">
+        <v>Pkb 248 Dupatta</v>
+      </c>
+      <c r="G110" t="str">
+        <v>22/04/2025</v>
+      </c>
       <c r="H110" t="str">
-        <v>Total</v>
+        <v>CN/25-26/003</v>
       </c>
       <c r="I110">
-        <v>68</v>
+        <v>4</v>
       </c>
       <c r="J110">
-        <v>50431.5</v>
+        <v>2793</v>
+      </c>
+      <c r="K110" t="str">
+        <v>Sales Return</v>
       </c>
     </row>
     <row r="111">
       <c r="A111">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B111" t="str">
-        <v>TANKHI DESIGNS1 PRIVATE LTD,Mumbai</v>
+        <v>BOMBAY EMPORIUM,Pune</v>
+      </c>
+      <c r="C111" t="str">
+        <v>ABHINANDAN AGENCY</v>
       </c>
       <c r="D111" t="str">
-        <v>PK 674</v>
+        <v>PKB 248 P</v>
       </c>
       <c r="E111" t="str">
-        <v>Pk 674</v>
-      </c>
-      <c r="F111" t="str">
-        <v>Green</v>
-      </c>
-      <c r="G111" s="1" t="str">
-        <v>08/04/2025</v>
+        <v>Pkb 248 Pant</v>
+      </c>
+      <c r="G111" t="str">
+        <v>22/04/2025</v>
       </c>
       <c r="H111" t="str">
-        <v>CN/24-25/010</v>
+        <v>CN/25-26/003</v>
       </c>
       <c r="I111">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J111">
-        <v>16083.2</v>
+        <v>3371.55</v>
       </c>
       <c r="K111" t="str">
         <v>Sales Return</v>
       </c>
     </row>
     <row r="112">
-      <c r="A112">
-        <v>2</v>
-      </c>
-      <c r="B112" t="str">
-        <v>TANKHI DESIGNS1 PRIVATE LTD,Mumbai</v>
-      </c>
-      <c r="D112" t="str">
-        <v>PK 674</v>
-      </c>
-      <c r="E112" t="str">
-        <v>Pk 674</v>
-      </c>
-      <c r="F112" t="str">
-        <v>Aqua</v>
-      </c>
-      <c r="G112" s="1" t="str">
-        <v>08/04/2025</v>
-      </c>
       <c r="H112" t="str">
-        <v>CN/24-25/010</v>
+        <v>Total</v>
       </c>
       <c r="I112">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J112">
-        <v>24124.8</v>
-      </c>
-      <c r="K112" t="str">
-        <v>Sales Return</v>
+        <v>11845.34</v>
       </c>
     </row>
     <row r="113">
       <c r="A113">
+        <v>1</v>
+      </c>
+      <c r="B113" t="str">
+        <v>GEETA PLUS,Gorakhpur</v>
+      </c>
+      <c r="D113" t="str">
+        <v>PKB 291</v>
+      </c>
+      <c r="E113" t="str">
+        <v>Pkb 291</v>
+      </c>
+      <c r="F113" t="str">
+        <v>Maroon</v>
+      </c>
+      <c r="G113" t="str">
+        <v>21/04/2025</v>
+      </c>
+      <c r="H113" t="str">
+        <v>CN/25-26/19</v>
+      </c>
+      <c r="I113">
+        <v>4</v>
+      </c>
+      <c r="J113">
+        <v>12521.6</v>
+      </c>
+      <c r="K113" t="str">
+        <v>Sales Return</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="H114" t="str">
+        <v>Total</v>
+      </c>
+      <c r="I114">
+        <v>4</v>
+      </c>
+      <c r="J114">
+        <v>12521.6</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115">
+        <v>1</v>
+      </c>
+      <c r="B115" t="str">
+        <v>KAVYA CREATION,Ahmedabad</v>
+      </c>
+      <c r="D115" t="str">
+        <v>PD</v>
+      </c>
+      <c r="E115" t="str">
+        <v>Pant &amp; Dupatta</v>
+      </c>
+      <c r="G115" s="1" t="str">
+        <v>05/04/2025</v>
+      </c>
+      <c r="H115" t="str">
+        <v>CN/25-26/006</v>
+      </c>
+      <c r="I115">
+        <v>1</v>
+      </c>
+      <c r="J115">
+        <v>630</v>
+      </c>
+      <c r="K115" t="str">
+        <v>Sales Return</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116">
+        <v>2</v>
+      </c>
+      <c r="B116" t="str">
+        <v>KAVYA CREATION,Ahmedabad</v>
+      </c>
+      <c r="D116" t="str">
+        <v>PK 554</v>
+      </c>
+      <c r="E116" t="str">
+        <v>Pk 554</v>
+      </c>
+      <c r="F116" t="str">
+        <v>Lilac</v>
+      </c>
+      <c r="G116" s="1" t="str">
+        <v>05/04/2025</v>
+      </c>
+      <c r="H116" t="str">
+        <v>CN/25-26/006</v>
+      </c>
+      <c r="I116">
+        <v>1</v>
+      </c>
+      <c r="J116">
+        <v>942.9</v>
+      </c>
+      <c r="K116" t="str">
+        <v>Sales Return</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117">
         <v>3</v>
       </c>
-      <c r="B113" t="str">
+      <c r="B117" t="str">
+        <v>KAVYA CREATION,Ahmedabad</v>
+      </c>
+      <c r="D117" t="str">
+        <v>PK 554 (P+D)</v>
+      </c>
+      <c r="E117" t="str">
+        <v>Pk 554 (Pant &amp; Dupatta)</v>
+      </c>
+      <c r="G117" s="1" t="str">
+        <v>05/04/2025</v>
+      </c>
+      <c r="H117" t="str">
+        <v>CN/25-26/006</v>
+      </c>
+      <c r="I117">
+        <v>1</v>
+      </c>
+      <c r="J117">
+        <v>941.85</v>
+      </c>
+      <c r="K117" t="str">
+        <v>Sales Return</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118">
+        <v>4</v>
+      </c>
+      <c r="B118" t="str">
+        <v>KAVYA CREATION,Ahmedabad</v>
+      </c>
+      <c r="D118" t="str">
+        <v>PK 595</v>
+      </c>
+      <c r="E118" t="str">
+        <v>Pk 595</v>
+      </c>
+      <c r="F118" t="str">
+        <v>M.green</v>
+      </c>
+      <c r="G118" s="1" t="str">
+        <v>05/04/2025</v>
+      </c>
+      <c r="H118" t="str">
+        <v>CN/25-26/006</v>
+      </c>
+      <c r="I118">
+        <v>1</v>
+      </c>
+      <c r="J118">
+        <v>942.9</v>
+      </c>
+      <c r="K118" t="str">
+        <v>Sales Return</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119">
+        <v>5</v>
+      </c>
+      <c r="B119" t="str">
+        <v>KAVYA CREATION,Ahmedabad</v>
+      </c>
+      <c r="D119" t="str">
+        <v>PK 595 (P+D)</v>
+      </c>
+      <c r="E119" t="str">
+        <v>Pk 595 (Pant &amp; Dupatta)</v>
+      </c>
+      <c r="G119" s="1" t="str">
+        <v>05/04/2025</v>
+      </c>
+      <c r="H119" t="str">
+        <v>CN/25-26/006</v>
+      </c>
+      <c r="I119">
+        <v>1</v>
+      </c>
+      <c r="J119">
+        <v>941.85</v>
+      </c>
+      <c r="K119" t="str">
+        <v>Sales Return</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120">
+        <v>6</v>
+      </c>
+      <c r="B120" t="str">
+        <v>KAVYA CREATION,Ahmedabad</v>
+      </c>
+      <c r="D120" t="str">
+        <v>PKB 146</v>
+      </c>
+      <c r="E120" t="str">
+        <v>Pkb 146</v>
+      </c>
+      <c r="F120" t="str">
+        <v>Mustard</v>
+      </c>
+      <c r="G120" s="1" t="str">
+        <v>05/04/2025</v>
+      </c>
+      <c r="H120" t="str">
+        <v>CN/25-26/006</v>
+      </c>
+      <c r="I120">
+        <v>1</v>
+      </c>
+      <c r="J120">
+        <v>939.75</v>
+      </c>
+      <c r="K120" t="str">
+        <v>Sales Return</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="H121" t="str">
+        <v>Total</v>
+      </c>
+      <c r="I121">
+        <v>6</v>
+      </c>
+      <c r="J121">
+        <v>5339.25</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122">
+        <v>1</v>
+      </c>
+      <c r="B122" t="str">
+        <v>M/S BABULAL TEKRIWAL,Rohtas</v>
+      </c>
+      <c r="C122" t="str">
+        <v>SUSHIL</v>
+      </c>
+      <c r="D122" t="str">
+        <v>PK 470</v>
+      </c>
+      <c r="E122" t="str">
+        <v>Pk 470</v>
+      </c>
+      <c r="F122" t="str">
+        <v>Mustard</v>
+      </c>
+      <c r="G122" s="1" t="str">
+        <v>09/04/2025</v>
+      </c>
+      <c r="H122" t="str">
+        <v>CN/25-25/001</v>
+      </c>
+      <c r="I122">
+        <v>4</v>
+      </c>
+      <c r="J122">
+        <v>7145.6</v>
+      </c>
+      <c r="K122" t="str">
+        <v>Others</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123">
+        <v>2</v>
+      </c>
+      <c r="B123" t="str">
+        <v>M/S BABULAL TEKRIWAL,Rohtas</v>
+      </c>
+      <c r="C123" t="str">
+        <v>SUSHIL</v>
+      </c>
+      <c r="D123" t="str">
+        <v>PK 558</v>
+      </c>
+      <c r="E123" t="str">
+        <v>Pk 558</v>
+      </c>
+      <c r="F123" t="str">
+        <v>T.blue</v>
+      </c>
+      <c r="G123" s="1" t="str">
+        <v>09/04/2025</v>
+      </c>
+      <c r="H123" t="str">
+        <v>CN/25-25/001</v>
+      </c>
+      <c r="I123">
+        <v>2</v>
+      </c>
+      <c r="J123">
+        <v>3124.8</v>
+      </c>
+      <c r="K123" t="str">
+        <v>Others</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124">
+        <v>3</v>
+      </c>
+      <c r="B124" t="str">
+        <v>M/S BABULAL TEKRIWAL,Rohtas</v>
+      </c>
+      <c r="C124" t="str">
+        <v>SUSHIL</v>
+      </c>
+      <c r="D124" t="str">
+        <v>PK 561</v>
+      </c>
+      <c r="E124" t="str">
+        <v>Pk 561</v>
+      </c>
+      <c r="F124" t="str">
+        <v>Rani</v>
+      </c>
+      <c r="G124" s="1" t="str">
+        <v>09/04/2025</v>
+      </c>
+      <c r="H124" t="str">
+        <v>CN/25-25/001</v>
+      </c>
+      <c r="I124">
+        <v>4</v>
+      </c>
+      <c r="J124">
+        <v>8489.6</v>
+      </c>
+      <c r="K124" t="str">
+        <v>Others</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125">
+        <v>4</v>
+      </c>
+      <c r="B125" t="str">
+        <v>M/S BABULAL TEKRIWAL,Rohtas</v>
+      </c>
+      <c r="C125" t="str">
+        <v>SUSHIL</v>
+      </c>
+      <c r="D125" t="str">
+        <v>PK 572 B</v>
+      </c>
+      <c r="E125" t="str">
+        <v>Pk 572 B</v>
+      </c>
+      <c r="F125" t="str">
+        <v>Green</v>
+      </c>
+      <c r="G125" s="1" t="str">
+        <v>09/04/2025</v>
+      </c>
+      <c r="H125" t="str">
+        <v>CN/25-25/001</v>
+      </c>
+      <c r="I125">
+        <v>4</v>
+      </c>
+      <c r="J125">
+        <v>8937.6</v>
+      </c>
+      <c r="K125" t="str">
+        <v>Others</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126">
+        <v>5</v>
+      </c>
+      <c r="B126" t="str">
+        <v>M/S BABULAL TEKRIWAL,Rohtas</v>
+      </c>
+      <c r="C126" t="str">
+        <v>SUSHIL</v>
+      </c>
+      <c r="D126" t="str">
+        <v>PK 605</v>
+      </c>
+      <c r="E126" t="str">
+        <v>Pk 605</v>
+      </c>
+      <c r="F126" t="str">
+        <v>Grey</v>
+      </c>
+      <c r="G126" s="1" t="str">
+        <v>09/04/2025</v>
+      </c>
+      <c r="H126" t="str">
+        <v>CN/25-25/001</v>
+      </c>
+      <c r="I126">
+        <v>4</v>
+      </c>
+      <c r="J126">
+        <v>8041.6</v>
+      </c>
+      <c r="K126" t="str">
+        <v>Others</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127">
+        <v>6</v>
+      </c>
+      <c r="B127" t="str">
+        <v>M/S BABULAL TEKRIWAL,Rohtas</v>
+      </c>
+      <c r="C127" t="str">
+        <v>SUSHIL</v>
+      </c>
+      <c r="D127" t="str">
+        <v>PK 688</v>
+      </c>
+      <c r="E127" t="str">
+        <v>Pk 688</v>
+      </c>
+      <c r="F127" t="str">
+        <v>Wine</v>
+      </c>
+      <c r="G127" s="1" t="str">
+        <v>09/04/2025</v>
+      </c>
+      <c r="H127" t="str">
+        <v>CN/25-25/001</v>
+      </c>
+      <c r="I127">
+        <v>4</v>
+      </c>
+      <c r="J127">
+        <v>7145.6</v>
+      </c>
+      <c r="K127" t="str">
+        <v>Others</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128">
+        <v>7</v>
+      </c>
+      <c r="B128" t="str">
+        <v>M/S BABULAL TEKRIWAL,Rohtas</v>
+      </c>
+      <c r="C128" t="str">
+        <v>SUSHIL</v>
+      </c>
+      <c r="D128" t="str">
+        <v>PK 697</v>
+      </c>
+      <c r="E128" t="str">
+        <v>Pk 697</v>
+      </c>
+      <c r="F128" t="str">
+        <v>Onion</v>
+      </c>
+      <c r="G128" s="1" t="str">
+        <v>09/04/2025</v>
+      </c>
+      <c r="H128" t="str">
+        <v>CN/25-25/001</v>
+      </c>
+      <c r="I128">
+        <v>4</v>
+      </c>
+      <c r="J128">
+        <v>8041.6</v>
+      </c>
+      <c r="K128" t="str">
+        <v>Others</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129">
+        <v>8</v>
+      </c>
+      <c r="B129" t="str">
+        <v>M/S BABULAL TEKRIWAL,Rohtas</v>
+      </c>
+      <c r="C129" t="str">
+        <v>SUSHIL</v>
+      </c>
+      <c r="D129" t="str">
+        <v>PKB 205 B</v>
+      </c>
+      <c r="E129" t="str">
+        <v>Pkb 205 B</v>
+      </c>
+      <c r="F129" t="str">
+        <v>Mustard</v>
+      </c>
+      <c r="G129" s="1" t="str">
+        <v>09/04/2025</v>
+      </c>
+      <c r="H129" t="str">
+        <v>CN/25-25/001</v>
+      </c>
+      <c r="I129">
+        <v>4</v>
+      </c>
+      <c r="J129">
+        <v>8937.6</v>
+      </c>
+      <c r="K129" t="str">
+        <v>Others</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130">
+        <v>9</v>
+      </c>
+      <c r="B130" t="str">
+        <v>M/S BABULAL TEKRIWAL,Rohtas</v>
+      </c>
+      <c r="C130" t="str">
+        <v>SUSHIL</v>
+      </c>
+      <c r="D130" t="str">
+        <v>PKB 213</v>
+      </c>
+      <c r="E130" t="str">
+        <v>Pkb 213</v>
+      </c>
+      <c r="F130" t="str">
+        <v>Purple</v>
+      </c>
+      <c r="G130" s="1" t="str">
+        <v>09/04/2025</v>
+      </c>
+      <c r="H130" t="str">
+        <v>CN/25-25/001</v>
+      </c>
+      <c r="I130">
+        <v>4</v>
+      </c>
+      <c r="J130">
+        <v>6697.6</v>
+      </c>
+      <c r="K130" t="str">
+        <v>Others</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131">
+        <v>10</v>
+      </c>
+      <c r="B131" t="str">
+        <v>M/S BABULAL TEKRIWAL,Rohtas</v>
+      </c>
+      <c r="C131" t="str">
+        <v>SUSHIL</v>
+      </c>
+      <c r="D131" t="str">
+        <v>PKB 213</v>
+      </c>
+      <c r="E131" t="str">
+        <v>Pkb 213</v>
+      </c>
+      <c r="F131" t="str">
+        <v>Red</v>
+      </c>
+      <c r="G131" s="1" t="str">
+        <v>09/04/2025</v>
+      </c>
+      <c r="H131" t="str">
+        <v>CN/25-25/001</v>
+      </c>
+      <c r="I131">
+        <v>4</v>
+      </c>
+      <c r="J131">
+        <v>6697.6</v>
+      </c>
+      <c r="K131" t="str">
+        <v>Others</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132">
+        <v>11</v>
+      </c>
+      <c r="B132" t="str">
+        <v>M/S BABULAL TEKRIWAL,Rohtas</v>
+      </c>
+      <c r="C132" t="str">
+        <v>SUSHIL</v>
+      </c>
+      <c r="D132" t="str">
+        <v>PKB 217</v>
+      </c>
+      <c r="E132" t="str">
+        <v>Pkb 217</v>
+      </c>
+      <c r="F132" t="str">
+        <v>Mustard</v>
+      </c>
+      <c r="G132" s="1" t="str">
+        <v>09/04/2025</v>
+      </c>
+      <c r="H132" t="str">
+        <v>CN/25-25/001</v>
+      </c>
+      <c r="I132">
+        <v>4</v>
+      </c>
+      <c r="J132">
+        <v>7593.6</v>
+      </c>
+      <c r="K132" t="str">
+        <v>Others</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133">
+        <v>12</v>
+      </c>
+      <c r="B133" t="str">
+        <v>M/S BABULAL TEKRIWAL,Rohtas</v>
+      </c>
+      <c r="C133" t="str">
+        <v>SUSHIL</v>
+      </c>
+      <c r="D133" t="str">
+        <v>PKB 237</v>
+      </c>
+      <c r="E133" t="str">
+        <v>Pkb 237</v>
+      </c>
+      <c r="F133" t="str">
+        <v>Onion</v>
+      </c>
+      <c r="G133" s="1" t="str">
+        <v>09/04/2025</v>
+      </c>
+      <c r="H133" t="str">
+        <v>CN/25-25/001</v>
+      </c>
+      <c r="I133">
+        <v>4</v>
+      </c>
+      <c r="J133">
+        <v>8937.6</v>
+      </c>
+      <c r="K133" t="str">
+        <v>Others</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134">
+        <v>13</v>
+      </c>
+      <c r="B134" t="str">
+        <v>M/S BABULAL TEKRIWAL,Rohtas</v>
+      </c>
+      <c r="C134" t="str">
+        <v>SUSHIL</v>
+      </c>
+      <c r="D134" t="str">
+        <v>PKB 251</v>
+      </c>
+      <c r="E134" t="str">
+        <v>Pkb 251</v>
+      </c>
+      <c r="F134" t="str">
+        <v>T.blue</v>
+      </c>
+      <c r="G134" s="1" t="str">
+        <v>09/04/2025</v>
+      </c>
+      <c r="H134" t="str">
+        <v>CN/25-25/001</v>
+      </c>
+      <c r="I134">
+        <v>4</v>
+      </c>
+      <c r="J134">
+        <v>7593.6</v>
+      </c>
+      <c r="K134" t="str">
+        <v>Others</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="H135" t="str">
+        <v>Total</v>
+      </c>
+      <c r="I135">
+        <v>50</v>
+      </c>
+      <c r="J135">
+        <v>97384</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136">
+        <v>1</v>
+      </c>
+      <c r="B136" t="str">
+        <v>M/S BLOSSOM BOUTIQUE,East Delhi</v>
+      </c>
+      <c r="D136" t="str">
+        <v>CKB 52</v>
+      </c>
+      <c r="E136" t="str">
+        <v>Ckb 52</v>
+      </c>
+      <c r="F136" t="str">
+        <v>Single</v>
+      </c>
+      <c r="G136" t="str">
+        <v>23/04/2025</v>
+      </c>
+      <c r="H136" t="str">
+        <v>CN/25-26/018</v>
+      </c>
+      <c r="I136">
+        <v>3</v>
+      </c>
+      <c r="J136">
+        <v>2828.7</v>
+      </c>
+      <c r="K136" t="str">
+        <v>Sales Return</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137">
+        <v>2</v>
+      </c>
+      <c r="B137" t="str">
+        <v>M/S BLOSSOM BOUTIQUE,East Delhi</v>
+      </c>
+      <c r="D137" t="str">
+        <v>PK 605</v>
+      </c>
+      <c r="E137" t="str">
+        <v>Pk 605</v>
+      </c>
+      <c r="F137" t="str">
+        <v>Green</v>
+      </c>
+      <c r="G137" t="str">
+        <v>23/04/2025</v>
+      </c>
+      <c r="H137" t="str">
+        <v>CN/25-26/018</v>
+      </c>
+      <c r="I137">
+        <v>4</v>
+      </c>
+      <c r="J137">
+        <v>3759</v>
+      </c>
+      <c r="K137" t="str">
+        <v>Sales Return</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138">
+        <v>3</v>
+      </c>
+      <c r="B138" t="str">
+        <v>M/S BLOSSOM BOUTIQUE,East Delhi</v>
+      </c>
+      <c r="D138" t="str">
+        <v>PK 605 (P+D)</v>
+      </c>
+      <c r="E138" t="str">
+        <v>Pk 605 (Pant &amp; Dupatta)</v>
+      </c>
+      <c r="G138" t="str">
+        <v>23/04/2025</v>
+      </c>
+      <c r="H138" t="str">
+        <v>CN/25-26/018</v>
+      </c>
+      <c r="I138">
+        <v>4</v>
+      </c>
+      <c r="J138">
+        <v>2940</v>
+      </c>
+      <c r="K138" t="str">
+        <v>Sales Return</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139">
+        <v>4</v>
+      </c>
+      <c r="B139" t="str">
+        <v>M/S BLOSSOM BOUTIQUE,East Delhi</v>
+      </c>
+      <c r="D139" t="str">
+        <v>PKB 223</v>
+      </c>
+      <c r="E139" t="str">
+        <v>Pkb 223</v>
+      </c>
+      <c r="F139" t="str">
+        <v>Green</v>
+      </c>
+      <c r="G139" t="str">
+        <v>23/04/2025</v>
+      </c>
+      <c r="H139" t="str">
+        <v>CN/25-26/018</v>
+      </c>
+      <c r="I139">
+        <v>2</v>
+      </c>
+      <c r="J139">
+        <v>1522.5</v>
+      </c>
+      <c r="K139" t="str">
+        <v>Sales Return</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140">
+        <v>5</v>
+      </c>
+      <c r="B140" t="str">
+        <v>M/S BLOSSOM BOUTIQUE,East Delhi</v>
+      </c>
+      <c r="D140" t="str">
+        <v>PKB 223 D</v>
+      </c>
+      <c r="E140" t="str">
+        <v>Pkb 223 Dupatta</v>
+      </c>
+      <c r="G140" t="str">
+        <v>23/04/2025</v>
+      </c>
+      <c r="H140" t="str">
+        <v>CN/25-26/018</v>
+      </c>
+      <c r="I140">
+        <v>2</v>
+      </c>
+      <c r="J140">
+        <v>1155</v>
+      </c>
+      <c r="K140" t="str">
+        <v>Sales Return</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141">
+        <v>6</v>
+      </c>
+      <c r="B141" t="str">
+        <v>M/S BLOSSOM BOUTIQUE,East Delhi</v>
+      </c>
+      <c r="D141" t="str">
+        <v>PKB 223 P</v>
+      </c>
+      <c r="E141" t="str">
+        <v>Pkb 223 Pant</v>
+      </c>
+      <c r="G141" t="str">
+        <v>23/04/2025</v>
+      </c>
+      <c r="H141" t="str">
+        <v>CN/25-26/018</v>
+      </c>
+      <c r="I141">
+        <v>2</v>
+      </c>
+      <c r="J141">
+        <v>1512</v>
+      </c>
+      <c r="K141" t="str">
+        <v>Sales Return</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142">
+        <v>7</v>
+      </c>
+      <c r="B142" t="str">
+        <v>M/S BLOSSOM BOUTIQUE,East Delhi</v>
+      </c>
+      <c r="D142" t="str">
+        <v>PKB 232</v>
+      </c>
+      <c r="E142" t="str">
+        <v>Pkb 232</v>
+      </c>
+      <c r="F142" t="str">
+        <v>Purple</v>
+      </c>
+      <c r="G142" t="str">
+        <v>23/04/2025</v>
+      </c>
+      <c r="H142" t="str">
+        <v>CN/25-26/018</v>
+      </c>
+      <c r="I142">
+        <v>3</v>
+      </c>
+      <c r="J142">
+        <v>2992.5</v>
+      </c>
+      <c r="K142" t="str">
+        <v>Sales Return</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143">
+        <v>8</v>
+      </c>
+      <c r="B143" t="str">
+        <v>M/S BLOSSOM BOUTIQUE,East Delhi</v>
+      </c>
+      <c r="D143" t="str">
+        <v>PKB 232 D</v>
+      </c>
+      <c r="E143" t="str">
+        <v>Pkb 232 Dupatta</v>
+      </c>
+      <c r="G143" t="str">
+        <v>23/04/2025</v>
+      </c>
+      <c r="H143" t="str">
+        <v>CN/25-26/018</v>
+      </c>
+      <c r="I143">
+        <v>3</v>
+      </c>
+      <c r="J143">
+        <v>1716.75</v>
+      </c>
+      <c r="K143" t="str">
+        <v>Sales Return</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144">
+        <v>9</v>
+      </c>
+      <c r="B144" t="str">
+        <v>M/S BLOSSOM BOUTIQUE,East Delhi</v>
+      </c>
+      <c r="D144" t="str">
+        <v>PKB 232 P</v>
+      </c>
+      <c r="E144" t="str">
+        <v>Pkb 232 Pant</v>
+      </c>
+      <c r="G144" t="str">
+        <v>23/04/2025</v>
+      </c>
+      <c r="H144" t="str">
+        <v>CN/25-26/018</v>
+      </c>
+      <c r="I144">
+        <v>3</v>
+      </c>
+      <c r="J144">
+        <v>2205</v>
+      </c>
+      <c r="K144" t="str">
+        <v>Sales Return</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145">
+        <v>10</v>
+      </c>
+      <c r="B145" t="str">
+        <v>M/S BLOSSOM BOUTIQUE,East Delhi</v>
+      </c>
+      <c r="D145" t="str">
+        <v>PKB 254</v>
+      </c>
+      <c r="E145" t="str">
+        <v>Pkb 254</v>
+      </c>
+      <c r="F145" t="str">
+        <v>Grey</v>
+      </c>
+      <c r="G145" t="str">
+        <v>23/04/2025</v>
+      </c>
+      <c r="H145" t="str">
+        <v>CN/25-26/018</v>
+      </c>
+      <c r="I145">
+        <v>1</v>
+      </c>
+      <c r="J145">
+        <v>732.9</v>
+      </c>
+      <c r="K145" t="str">
+        <v>Sales Return</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146">
+        <v>11</v>
+      </c>
+      <c r="B146" t="str">
+        <v>M/S BLOSSOM BOUTIQUE,East Delhi</v>
+      </c>
+      <c r="D146" t="str">
+        <v>PKB 254 P+D</v>
+      </c>
+      <c r="E146" t="str">
+        <v>Pkb 254 (Pant &amp; Dupatta)</v>
+      </c>
+      <c r="G146" t="str">
+        <v>23/04/2025</v>
+      </c>
+      <c r="H146" t="str">
+        <v>CN/25-26/018</v>
+      </c>
+      <c r="I146">
+        <v>1</v>
+      </c>
+      <c r="J146">
+        <v>731.85</v>
+      </c>
+      <c r="K146" t="str">
+        <v>Sales Return</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="H147" t="str">
+        <v>Total</v>
+      </c>
+      <c r="I147">
+        <v>28</v>
+      </c>
+      <c r="J147">
+        <v>22096.2</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148">
+        <v>1</v>
+      </c>
+      <c r="B148" t="str">
+        <v>M/S. MALAK FASHION,Kolkata</v>
+      </c>
+      <c r="D148" t="str">
+        <v>KORA 60" / SU 06</v>
+      </c>
+      <c r="E148" t="str">
+        <v>Kora 60" / Su 06</v>
+      </c>
+      <c r="F148" t="str">
+        <v>Rfd</v>
+      </c>
+      <c r="G148" s="1" t="str">
+        <v>09/04/2025</v>
+      </c>
+      <c r="H148" t="str">
+        <v>CN/25-26/002</v>
+      </c>
+      <c r="I148">
+        <v>412.8</v>
+      </c>
+      <c r="J148">
+        <v>17337.6</v>
+      </c>
+      <c r="K148" t="str">
+        <v>Others</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="H149" t="str">
+        <v>Total</v>
+      </c>
+      <c r="I149">
+        <v>412.8</v>
+      </c>
+      <c r="J149">
+        <v>17337.6</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150">
+        <v>1</v>
+      </c>
+      <c r="B150" t="str">
+        <v>Mahi Sarees,Panch Mahals</v>
+      </c>
+      <c r="C150" t="str">
+        <v>JIGAR TEXTILE AGENCY</v>
+      </c>
+      <c r="D150" t="str">
+        <v>PK 760</v>
+      </c>
+      <c r="E150" t="str">
+        <v>Pk 760</v>
+      </c>
+      <c r="F150" t="str">
+        <v>Royal Blue</v>
+      </c>
+      <c r="G150" t="str">
+        <v>14/04/2025</v>
+      </c>
+      <c r="H150" t="str">
+        <v>CN/25-26/013</v>
+      </c>
+      <c r="I150">
+        <v>1</v>
+      </c>
+      <c r="J150">
+        <v>2010.4</v>
+      </c>
+      <c r="K150" t="str">
+        <v>Sales Return</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151">
+        <v>2</v>
+      </c>
+      <c r="B151" t="str">
+        <v>Mahi Sarees,Panch Mahals</v>
+      </c>
+      <c r="C151" t="str">
+        <v>JIGAR TEXTILE AGENCY</v>
+      </c>
+      <c r="D151" t="str">
+        <v>PK 760</v>
+      </c>
+      <c r="E151" t="str">
+        <v>Pk 760</v>
+      </c>
+      <c r="F151" t="str">
+        <v>Bottle Green</v>
+      </c>
+      <c r="G151" t="str">
+        <v>14/04/2025</v>
+      </c>
+      <c r="H151" t="str">
+        <v>CN/25-26/013</v>
+      </c>
+      <c r="I151">
+        <v>1</v>
+      </c>
+      <c r="J151">
+        <v>2010.4</v>
+      </c>
+      <c r="K151" t="str">
+        <v>Sales Return</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="H152" t="str">
+        <v>Total</v>
+      </c>
+      <c r="I152">
+        <v>2</v>
+      </c>
+      <c r="J152">
+        <v>4020.8</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153">
+        <v>1</v>
+      </c>
+      <c r="B153" t="str">
+        <v>RAJRISHI,Ahmedabad</v>
+      </c>
+      <c r="C153" t="str">
+        <v>RAGHANI</v>
+      </c>
+      <c r="D153" t="str">
+        <v>PK 576</v>
+      </c>
+      <c r="E153" t="str">
+        <v>Pk 576</v>
+      </c>
+      <c r="F153" t="str">
+        <v>Navy Blue</v>
+      </c>
+      <c r="G153" t="str">
+        <v>25/04/2025</v>
+      </c>
+      <c r="H153" t="str">
+        <v>CN/25-26/020</v>
+      </c>
+      <c r="I153">
+        <v>1</v>
+      </c>
+      <c r="J153">
+        <v>939.75</v>
+      </c>
+      <c r="K153" t="str">
+        <v>Sales Return</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154">
+        <v>2</v>
+      </c>
+      <c r="B154" t="str">
+        <v>RAJRISHI,Ahmedabad</v>
+      </c>
+      <c r="C154" t="str">
+        <v>RAGHANI</v>
+      </c>
+      <c r="D154" t="str">
+        <v>PK 576 D</v>
+      </c>
+      <c r="E154" t="str">
+        <v>Pk 576 Dupatta</v>
+      </c>
+      <c r="G154" t="str">
+        <v>25/04/2025</v>
+      </c>
+      <c r="H154" t="str">
+        <v>CN/25-26/020</v>
+      </c>
+      <c r="I154">
+        <v>1</v>
+      </c>
+      <c r="J154">
+        <v>735</v>
+      </c>
+      <c r="K154" t="str">
+        <v>Sales Return</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155">
+        <v>3</v>
+      </c>
+      <c r="B155" t="str">
+        <v>RAJRISHI,Ahmedabad</v>
+      </c>
+      <c r="C155" t="str">
+        <v>RAGHANI</v>
+      </c>
+      <c r="D155" t="str">
+        <v>PK 576 P</v>
+      </c>
+      <c r="E155" t="str">
+        <v>Pk 576 Pant</v>
+      </c>
+      <c r="G155" t="str">
+        <v>25/04/2025</v>
+      </c>
+      <c r="H155" t="str">
+        <v>CN/25-26/020</v>
+      </c>
+      <c r="I155">
+        <v>1</v>
+      </c>
+      <c r="J155">
+        <v>735</v>
+      </c>
+      <c r="K155" t="str">
+        <v>Sales Return</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156">
+        <v>4</v>
+      </c>
+      <c r="B156" t="str">
+        <v>RAJRISHI,Ahmedabad</v>
+      </c>
+      <c r="C156" t="str">
+        <v>RAGHANI</v>
+      </c>
+      <c r="D156" t="str">
+        <v>PK 606</v>
+      </c>
+      <c r="E156" t="str">
+        <v>Pk 606</v>
+      </c>
+      <c r="F156" t="str">
+        <v>Aqua</v>
+      </c>
+      <c r="G156" t="str">
+        <v>17/04/2025</v>
+      </c>
+      <c r="H156" t="str">
+        <v>CN/25-26/015</v>
+      </c>
+      <c r="I156">
+        <v>1</v>
+      </c>
+      <c r="J156">
+        <v>939.75</v>
+      </c>
+      <c r="K156" t="str">
+        <v>Sales Return</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157">
+        <v>5</v>
+      </c>
+      <c r="B157" t="str">
+        <v>RAJRISHI,Ahmedabad</v>
+      </c>
+      <c r="C157" t="str">
+        <v>RAGHANI</v>
+      </c>
+      <c r="D157" t="str">
+        <v>PK 606 (P+D)</v>
+      </c>
+      <c r="E157" t="str">
+        <v>Pk 606 (Pant &amp; Dupatta)</v>
+      </c>
+      <c r="G157" t="str">
+        <v>17/04/2025</v>
+      </c>
+      <c r="H157" t="str">
+        <v>CN/25-26/015</v>
+      </c>
+      <c r="I157">
+        <v>1</v>
+      </c>
+      <c r="J157">
+        <v>735</v>
+      </c>
+      <c r="K157" t="str">
+        <v>Sales Return</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158">
+        <v>6</v>
+      </c>
+      <c r="B158" t="str">
+        <v>RAJRISHI,Ahmedabad</v>
+      </c>
+      <c r="C158" t="str">
+        <v>RAGHANI</v>
+      </c>
+      <c r="D158" t="str">
+        <v>PKB 212</v>
+      </c>
+      <c r="E158" t="str">
+        <v>Pkb 212</v>
+      </c>
+      <c r="F158" t="str">
+        <v>Mouse</v>
+      </c>
+      <c r="G158" t="str">
+        <v>25/04/2025</v>
+      </c>
+      <c r="H158" t="str">
+        <v>CN/25-26/020</v>
+      </c>
+      <c r="I158">
+        <v>1</v>
+      </c>
+      <c r="J158">
+        <v>735</v>
+      </c>
+      <c r="K158" t="str">
+        <v>Sales Return</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159">
+        <v>7</v>
+      </c>
+      <c r="B159" t="str">
+        <v>RAJRISHI,Ahmedabad</v>
+      </c>
+      <c r="C159" t="str">
+        <v>RAGHANI</v>
+      </c>
+      <c r="D159" t="str">
+        <v>PKB 212 (P+D)</v>
+      </c>
+      <c r="E159" t="str">
+        <v>Pkb 212 (Pant &amp; Dupatta)</v>
+      </c>
+      <c r="G159" t="str">
+        <v>25/04/2025</v>
+      </c>
+      <c r="H159" t="str">
+        <v>CN/25-26/020</v>
+      </c>
+      <c r="I159">
+        <v>1</v>
+      </c>
+      <c r="J159">
+        <v>729.75</v>
+      </c>
+      <c r="K159" t="str">
+        <v>Sales Return</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160">
+        <v>8</v>
+      </c>
+      <c r="B160" t="str">
+        <v>RAJRISHI,Ahmedabad</v>
+      </c>
+      <c r="C160" t="str">
+        <v>RAGHANI</v>
+      </c>
+      <c r="D160" t="str">
+        <v>PKB 223</v>
+      </c>
+      <c r="E160" t="str">
+        <v>Pkb 223</v>
+      </c>
+      <c r="F160" t="str">
+        <v>Onion</v>
+      </c>
+      <c r="G160" s="1" t="str">
+        <v>07/04/2025</v>
+      </c>
+      <c r="H160" t="str">
+        <v>CN/25-26/008</v>
+      </c>
+      <c r="I160">
+        <v>1</v>
+      </c>
+      <c r="J160">
+        <v>761.25</v>
+      </c>
+      <c r="K160" t="str">
+        <v>Sales Return</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161">
+        <v>9</v>
+      </c>
+      <c r="B161" t="str">
+        <v>RAJRISHI,Ahmedabad</v>
+      </c>
+      <c r="C161" t="str">
+        <v>RAGHANI</v>
+      </c>
+      <c r="D161" t="str">
+        <v>PKB 223 D</v>
+      </c>
+      <c r="E161" t="str">
+        <v>Pkb 223 Dupatta</v>
+      </c>
+      <c r="G161" s="1" t="str">
+        <v>07/04/2025</v>
+      </c>
+      <c r="H161" t="str">
+        <v>CN/25-26/008</v>
+      </c>
+      <c r="I161">
+        <v>1</v>
+      </c>
+      <c r="J161">
+        <v>577.5</v>
+      </c>
+      <c r="K161" t="str">
+        <v>Sales Return</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162">
+        <v>10</v>
+      </c>
+      <c r="B162" t="str">
+        <v>RAJRISHI,Ahmedabad</v>
+      </c>
+      <c r="C162" t="str">
+        <v>RAGHANI</v>
+      </c>
+      <c r="D162" t="str">
+        <v>PKB 223 P</v>
+      </c>
+      <c r="E162" t="str">
+        <v>Pkb 223 Pant</v>
+      </c>
+      <c r="G162" s="1" t="str">
+        <v>07/04/2025</v>
+      </c>
+      <c r="H162" t="str">
+        <v>CN/25-26/008</v>
+      </c>
+      <c r="I162">
+        <v>1</v>
+      </c>
+      <c r="J162">
+        <v>756</v>
+      </c>
+      <c r="K162" t="str">
+        <v>Sales Return</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="H163" t="str">
+        <v>Total</v>
+      </c>
+      <c r="I163">
+        <v>10</v>
+      </c>
+      <c r="J163">
+        <v>7644</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164">
+        <v>1</v>
+      </c>
+      <c r="B164" t="str">
+        <v>SEQUENCE STYLER,Surat</v>
+      </c>
+      <c r="C164" t="str">
+        <v>RAGHANI</v>
+      </c>
+      <c r="D164" t="str">
+        <v>PK 554</v>
+      </c>
+      <c r="E164" t="str">
+        <v>Pk 554</v>
+      </c>
+      <c r="F164" t="str">
+        <v>Green</v>
+      </c>
+      <c r="G164" t="str">
+        <v>19/04/2025</v>
+      </c>
+      <c r="H164" t="str">
+        <v>CN/25-26/016</v>
+      </c>
+      <c r="I164">
+        <v>1</v>
+      </c>
+      <c r="J164">
+        <v>942.9</v>
+      </c>
+      <c r="K164" t="str">
+        <v>Sales Return</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165">
+        <v>2</v>
+      </c>
+      <c r="B165" t="str">
+        <v>SEQUENCE STYLER,Surat</v>
+      </c>
+      <c r="C165" t="str">
+        <v>RAGHANI</v>
+      </c>
+      <c r="D165" t="str">
+        <v>PK 554 (P+D)</v>
+      </c>
+      <c r="E165" t="str">
+        <v>Pk 554 (Pant &amp; Dupatta)</v>
+      </c>
+      <c r="G165" t="str">
+        <v>19/04/2025</v>
+      </c>
+      <c r="H165" t="str">
+        <v>CN/25-26/016</v>
+      </c>
+      <c r="I165">
+        <v>1</v>
+      </c>
+      <c r="J165">
+        <v>941.85</v>
+      </c>
+      <c r="K165" t="str">
+        <v>Sales Return</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166">
+        <v>3</v>
+      </c>
+      <c r="B166" t="str">
+        <v>SEQUENCE STYLER,Surat</v>
+      </c>
+      <c r="C166" t="str">
+        <v>RAGHANI</v>
+      </c>
+      <c r="D166" t="str">
+        <v>PK 580</v>
+      </c>
+      <c r="E166" t="str">
+        <v>Pk 580</v>
+      </c>
+      <c r="F166" t="str">
+        <v>Rani</v>
+      </c>
+      <c r="G166" t="str">
+        <v>19/04/2025</v>
+      </c>
+      <c r="H166" t="str">
+        <v>CN/25-26/016</v>
+      </c>
+      <c r="I166">
+        <v>1</v>
+      </c>
+      <c r="J166">
+        <v>942.9</v>
+      </c>
+      <c r="K166" t="str">
+        <v>Sales Return</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167">
+        <v>4</v>
+      </c>
+      <c r="B167" t="str">
+        <v>SEQUENCE STYLER,Surat</v>
+      </c>
+      <c r="C167" t="str">
+        <v>RAGHANI</v>
+      </c>
+      <c r="D167" t="str">
+        <v>PK 580 (P+D)</v>
+      </c>
+      <c r="E167" t="str">
+        <v>Pk 580 (Pant &amp; Dupatta)</v>
+      </c>
+      <c r="G167" t="str">
+        <v>19/04/2025</v>
+      </c>
+      <c r="H167" t="str">
+        <v>CN/25-26/016</v>
+      </c>
+      <c r="I167">
+        <v>1</v>
+      </c>
+      <c r="J167">
+        <v>941.85</v>
+      </c>
+      <c r="K167" t="str">
+        <v>Sales Return</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="H168" t="str">
+        <v>Total</v>
+      </c>
+      <c r="I168">
+        <v>4</v>
+      </c>
+      <c r="J168">
+        <v>3769.5</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169">
+        <v>1</v>
+      </c>
+      <c r="B169" t="str">
+        <v>Shree Mahaveer NX,Surat</v>
+      </c>
+      <c r="C169" t="str">
+        <v>ABHINANDAN AGENCY</v>
+      </c>
+      <c r="D169" t="str">
+        <v>PK 561 B</v>
+      </c>
+      <c r="E169" t="str">
+        <v>Pk 561 B</v>
+      </c>
+      <c r="F169" t="str">
+        <v>Rani</v>
+      </c>
+      <c r="G169" s="1" t="str">
+        <v>02/04/2025</v>
+      </c>
+      <c r="H169" t="str">
+        <v>CN/25-26/005</v>
+      </c>
+      <c r="I169">
+        <v>4</v>
+      </c>
+      <c r="J169">
+        <v>3351.6</v>
+      </c>
+      <c r="K169" t="str">
+        <v>Sales Return</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170">
+        <v>2</v>
+      </c>
+      <c r="B170" t="str">
+        <v>Shree Mahaveer NX,Surat</v>
+      </c>
+      <c r="C170" t="str">
+        <v>ABHINANDAN AGENCY</v>
+      </c>
+      <c r="D170" t="str">
+        <v>PK 561 B (P+D)</v>
+      </c>
+      <c r="E170" t="str">
+        <v>Pk 561 B (Pant &amp; Dupatta)</v>
+      </c>
+      <c r="G170" s="1" t="str">
+        <v>02/04/2025</v>
+      </c>
+      <c r="H170" t="str">
+        <v>CN/25-26/005</v>
+      </c>
+      <c r="I170">
+        <v>4</v>
+      </c>
+      <c r="J170">
+        <v>3347.4</v>
+      </c>
+      <c r="K170" t="str">
+        <v>Sales Return</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171">
+        <v>3</v>
+      </c>
+      <c r="B171" t="str">
+        <v>Shree Mahaveer NX,Surat</v>
+      </c>
+      <c r="C171" t="str">
+        <v>ABHINANDAN AGENCY</v>
+      </c>
+      <c r="D171" t="str">
+        <v>PKB 221</v>
+      </c>
+      <c r="E171" t="str">
+        <v>Pkb 221</v>
+      </c>
+      <c r="F171" t="str">
+        <v>T.blue</v>
+      </c>
+      <c r="G171" s="1" t="str">
+        <v>02/04/2025</v>
+      </c>
+      <c r="H171" t="str">
+        <v>CN/25-26/005</v>
+      </c>
+      <c r="I171">
+        <v>1</v>
+      </c>
+      <c r="J171">
+        <v>1044.75</v>
+      </c>
+      <c r="K171" t="str">
+        <v>Sales Return</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172">
+        <v>4</v>
+      </c>
+      <c r="B172" t="str">
+        <v>Shree Mahaveer NX,Surat</v>
+      </c>
+      <c r="C172" t="str">
+        <v>ABHINANDAN AGENCY</v>
+      </c>
+      <c r="D172" t="str">
+        <v>PKB 221 D</v>
+      </c>
+      <c r="E172" t="str">
+        <v>Pkb 221 Dupatta</v>
+      </c>
+      <c r="G172" s="1" t="str">
+        <v>02/04/2025</v>
+      </c>
+      <c r="H172" t="str">
+        <v>CN/25-26/005</v>
+      </c>
+      <c r="I172">
+        <v>1</v>
+      </c>
+      <c r="J172">
+        <v>855.75</v>
+      </c>
+      <c r="K172" t="str">
+        <v>Sales Return</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173">
+        <v>5</v>
+      </c>
+      <c r="B173" t="str">
+        <v>Shree Mahaveer NX,Surat</v>
+      </c>
+      <c r="C173" t="str">
+        <v>ABHINANDAN AGENCY</v>
+      </c>
+      <c r="D173" t="str">
+        <v>PKB 221 P</v>
+      </c>
+      <c r="E173" t="str">
+        <v>Pkb 221 Pant</v>
+      </c>
+      <c r="G173" s="1" t="str">
+        <v>02/04/2025</v>
+      </c>
+      <c r="H173" t="str">
+        <v>CN/25-26/005</v>
+      </c>
+      <c r="I173">
+        <v>1</v>
+      </c>
+      <c r="J173">
+        <v>1034.25</v>
+      </c>
+      <c r="K173" t="str">
+        <v>Sales Return</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174">
+        <v>6</v>
+      </c>
+      <c r="B174" t="str">
+        <v>Shree Mahaveer NX,Surat</v>
+      </c>
+      <c r="C174" t="str">
+        <v>ABHINANDAN AGENCY</v>
+      </c>
+      <c r="D174" t="str">
+        <v>PKB 230</v>
+      </c>
+      <c r="E174" t="str">
+        <v>Pkb 230</v>
+      </c>
+      <c r="F174" t="str">
+        <v>Cherry</v>
+      </c>
+      <c r="G174" s="1" t="str">
+        <v>02/04/2025</v>
+      </c>
+      <c r="H174" t="str">
+        <v>CN/25-26/005</v>
+      </c>
+      <c r="I174">
+        <v>4</v>
+      </c>
+      <c r="J174">
+        <v>4191.6</v>
+      </c>
+      <c r="K174" t="str">
+        <v>Sales Return</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175">
+        <v>7</v>
+      </c>
+      <c r="B175" t="str">
+        <v>Shree Mahaveer NX,Surat</v>
+      </c>
+      <c r="C175" t="str">
+        <v>ABHINANDAN AGENCY</v>
+      </c>
+      <c r="D175" t="str">
+        <v>PKB 230 (P+D)</v>
+      </c>
+      <c r="E175" t="str">
+        <v>Pkb 230 (Pant &amp; Dupatta)</v>
+      </c>
+      <c r="G175" s="1" t="str">
+        <v>02/04/2025</v>
+      </c>
+      <c r="H175" t="str">
+        <v>CN/25-26/005</v>
+      </c>
+      <c r="I175">
+        <v>4</v>
+      </c>
+      <c r="J175">
+        <v>4187.4</v>
+      </c>
+      <c r="K175" t="str">
+        <v>Sales Return</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="H176" t="str">
+        <v>Total</v>
+      </c>
+      <c r="I176">
+        <v>19</v>
+      </c>
+      <c r="J176">
+        <v>18012.75</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177">
+        <v>1</v>
+      </c>
+      <c r="B177" t="str">
+        <v>SUNDARI CREATIONS,East Delhi</v>
+      </c>
+      <c r="D177" t="str">
+        <v>PD</v>
+      </c>
+      <c r="E177" t="str">
+        <v>Pant &amp; Dupatta</v>
+      </c>
+      <c r="G177" s="1" t="str">
+        <v>08/04/2025</v>
+      </c>
+      <c r="H177" t="str">
+        <v>CN/25-26/009</v>
+      </c>
+      <c r="I177">
+        <v>7</v>
+      </c>
+      <c r="J177">
+        <v>3675</v>
+      </c>
+      <c r="K177" t="str">
+        <v>Sales Return</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178">
+        <v>2</v>
+      </c>
+      <c r="B178" t="str">
+        <v>SUNDARI CREATIONS,East Delhi</v>
+      </c>
+      <c r="D178" t="str">
+        <v>PK 558</v>
+      </c>
+      <c r="E178" t="str">
+        <v>Pk 558</v>
+      </c>
+      <c r="F178" t="str">
+        <v>Mouse</v>
+      </c>
+      <c r="G178" s="1" t="str">
+        <v>08/04/2025</v>
+      </c>
+      <c r="H178" t="str">
+        <v>CN/25-26/009</v>
+      </c>
+      <c r="I178">
+        <v>6</v>
+      </c>
+      <c r="J178">
+        <v>5638.5</v>
+      </c>
+      <c r="K178" t="str">
+        <v>Sales Return</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179">
+        <v>3</v>
+      </c>
+      <c r="B179" t="str">
+        <v>SUNDARI CREATIONS,East Delhi</v>
+      </c>
+      <c r="D179" t="str">
+        <v>PK 558</v>
+      </c>
+      <c r="E179" t="str">
+        <v>Pk 558</v>
+      </c>
+      <c r="F179" t="str">
+        <v>Cherry</v>
+      </c>
+      <c r="G179" s="1" t="str">
+        <v>08/04/2025</v>
+      </c>
+      <c r="H179" t="str">
+        <v>CN/25-26/009</v>
+      </c>
+      <c r="I179">
+        <v>6</v>
+      </c>
+      <c r="J179">
+        <v>5638.5</v>
+      </c>
+      <c r="K179" t="str">
+        <v>Sales Return</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180">
+        <v>4</v>
+      </c>
+      <c r="B180" t="str">
+        <v>SUNDARI CREATIONS,East Delhi</v>
+      </c>
+      <c r="D180" t="str">
+        <v>PK 558 (P+D)</v>
+      </c>
+      <c r="E180" t="str">
+        <v>Pk 558 (Pant &amp; Dupatta)</v>
+      </c>
+      <c r="G180" s="1" t="str">
+        <v>08/04/2025</v>
+      </c>
+      <c r="H180" t="str">
+        <v>CN/25-26/009</v>
+      </c>
+      <c r="I180">
+        <v>12</v>
+      </c>
+      <c r="J180">
+        <v>3780</v>
+      </c>
+      <c r="K180" t="str">
+        <v>Sales Return</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181">
+        <v>5</v>
+      </c>
+      <c r="B181" t="str">
+        <v>SUNDARI CREATIONS,East Delhi</v>
+      </c>
+      <c r="D181" t="str">
+        <v>PK 697</v>
+      </c>
+      <c r="E181" t="str">
+        <v>Pk 697</v>
+      </c>
+      <c r="F181" t="str">
+        <v>Onion</v>
+      </c>
+      <c r="G181" s="1" t="str">
+        <v>08/04/2025</v>
+      </c>
+      <c r="H181" t="str">
+        <v>CN/25-26/009</v>
+      </c>
+      <c r="I181">
+        <v>4</v>
+      </c>
+      <c r="J181">
+        <v>4179</v>
+      </c>
+      <c r="K181" t="str">
+        <v>Sales Return</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182">
+        <v>6</v>
+      </c>
+      <c r="B182" t="str">
+        <v>SUNDARI CREATIONS,East Delhi</v>
+      </c>
+      <c r="D182" t="str">
+        <v>PK 697</v>
+      </c>
+      <c r="E182" t="str">
+        <v>Pk 697</v>
+      </c>
+      <c r="F182" t="str">
+        <v>Yellow</v>
+      </c>
+      <c r="G182" s="1" t="str">
+        <v>08/04/2025</v>
+      </c>
+      <c r="H182" t="str">
+        <v>CN/25-26/009</v>
+      </c>
+      <c r="I182">
+        <v>4</v>
+      </c>
+      <c r="J182">
+        <v>4179</v>
+      </c>
+      <c r="K182" t="str">
+        <v>Sales Return</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183">
+        <v>7</v>
+      </c>
+      <c r="B183" t="str">
+        <v>SUNDARI CREATIONS,East Delhi</v>
+      </c>
+      <c r="D183" t="str">
+        <v>PK 697</v>
+      </c>
+      <c r="E183" t="str">
+        <v>Pk 697</v>
+      </c>
+      <c r="F183" t="str">
+        <v>Aqua</v>
+      </c>
+      <c r="G183" s="1" t="str">
+        <v>08/04/2025</v>
+      </c>
+      <c r="H183" t="str">
+        <v>CN/25-26/009</v>
+      </c>
+      <c r="I183">
+        <v>4</v>
+      </c>
+      <c r="J183">
+        <v>4179</v>
+      </c>
+      <c r="K183" t="str">
+        <v>Sales Return</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184">
+        <v>8</v>
+      </c>
+      <c r="B184" t="str">
+        <v>SUNDARI CREATIONS,East Delhi</v>
+      </c>
+      <c r="D184" t="str">
+        <v>PK 697 (P+D)</v>
+      </c>
+      <c r="E184" t="str">
+        <v>Pk 697 (Pant &amp; Dupatta)</v>
+      </c>
+      <c r="G184" s="1" t="str">
+        <v>08/04/2025</v>
+      </c>
+      <c r="H184" t="str">
+        <v>CN/25-26/009</v>
+      </c>
+      <c r="I184">
+        <v>12</v>
+      </c>
+      <c r="J184">
+        <v>7560</v>
+      </c>
+      <c r="K184" t="str">
+        <v>Sales Return</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185">
+        <v>9</v>
+      </c>
+      <c r="B185" t="str">
+        <v>SUNDARI CREATIONS,East Delhi</v>
+      </c>
+      <c r="D185" t="str">
+        <v>PKB 250</v>
+      </c>
+      <c r="E185" t="str">
+        <v>Pkb 250</v>
+      </c>
+      <c r="F185" t="str">
+        <v>Mustard</v>
+      </c>
+      <c r="G185" s="1" t="str">
+        <v>08/04/2025</v>
+      </c>
+      <c r="H185" t="str">
+        <v>CN/25-26/009</v>
+      </c>
+      <c r="I185">
+        <v>3</v>
+      </c>
+      <c r="J185">
+        <v>2819.25</v>
+      </c>
+      <c r="K185" t="str">
+        <v>Sales Return</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186">
+        <v>10</v>
+      </c>
+      <c r="B186" t="str">
+        <v>SUNDARI CREATIONS,East Delhi</v>
+      </c>
+      <c r="D186" t="str">
+        <v>PKB 250 (P+D)</v>
+      </c>
+      <c r="E186" t="str">
+        <v>Pkb 250 (Pant &amp; Dupatta)</v>
+      </c>
+      <c r="G186" s="1" t="str">
+        <v>08/04/2025</v>
+      </c>
+      <c r="H186" t="str">
+        <v>CN/25-26/009</v>
+      </c>
+      <c r="I186">
+        <v>3</v>
+      </c>
+      <c r="J186">
+        <v>2205</v>
+      </c>
+      <c r="K186" t="str">
+        <v>Sales Return</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187">
+        <v>11</v>
+      </c>
+      <c r="B187" t="str">
+        <v>SUNDARI CREATIONS,East Delhi</v>
+      </c>
+      <c r="D187" t="str">
+        <v>PKB 287</v>
+      </c>
+      <c r="E187" t="str">
+        <v>Pkb 287</v>
+      </c>
+      <c r="F187" t="str">
+        <v>Single</v>
+      </c>
+      <c r="G187" s="1" t="str">
+        <v>08/04/2025</v>
+      </c>
+      <c r="H187" t="str">
+        <v>CN/25-26/009</v>
+      </c>
+      <c r="I187">
+        <v>7</v>
+      </c>
+      <c r="J187">
+        <v>6578.25</v>
+      </c>
+      <c r="K187" t="str">
+        <v>Sales Return</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="H188" t="str">
+        <v>Total</v>
+      </c>
+      <c r="I188">
+        <v>68</v>
+      </c>
+      <c r="J188">
+        <v>50431.5</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189">
+        <v>1</v>
+      </c>
+      <c r="B189" t="str">
         <v>TANKHI DESIGNS1 PRIVATE LTD,Mumbai</v>
       </c>
-      <c r="D113" t="str">
+      <c r="D189" t="str">
         <v>PK 674</v>
       </c>
-      <c r="E113" t="str">
+      <c r="E189" t="str">
         <v>Pk 674</v>
       </c>
-      <c r="F113" t="str">
+      <c r="F189" t="str">
+        <v>Green</v>
+      </c>
+      <c r="G189" s="1" t="str">
+        <v>08/04/2025</v>
+      </c>
+      <c r="H189" t="str">
+        <v>CN/24-25/010</v>
+      </c>
+      <c r="I189">
+        <v>8</v>
+      </c>
+      <c r="J189">
+        <v>16083.2</v>
+      </c>
+      <c r="K189" t="str">
+        <v>Sales Return</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190">
+        <v>2</v>
+      </c>
+      <c r="B190" t="str">
+        <v>TANKHI DESIGNS1 PRIVATE LTD,Mumbai</v>
+      </c>
+      <c r="D190" t="str">
+        <v>PK 674</v>
+      </c>
+      <c r="E190" t="str">
+        <v>Pk 674</v>
+      </c>
+      <c r="F190" t="str">
+        <v>Aqua</v>
+      </c>
+      <c r="G190" s="1" t="str">
+        <v>08/04/2025</v>
+      </c>
+      <c r="H190" t="str">
+        <v>CN/24-25/010</v>
+      </c>
+      <c r="I190">
+        <v>12</v>
+      </c>
+      <c r="J190">
+        <v>24124.8</v>
+      </c>
+      <c r="K190" t="str">
+        <v>Sales Return</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191">
+        <v>3</v>
+      </c>
+      <c r="B191" t="str">
+        <v>TANKHI DESIGNS1 PRIVATE LTD,Mumbai</v>
+      </c>
+      <c r="D191" t="str">
+        <v>PK 674</v>
+      </c>
+      <c r="E191" t="str">
+        <v>Pk 674</v>
+      </c>
+      <c r="F191" t="str">
         <v>Onion</v>
       </c>
-      <c r="G113" s="1" t="str">
+      <c r="G191" s="1" t="str">
         <v>07/04/2025</v>
       </c>
-      <c r="H113" t="str">
+      <c r="H191" t="str">
         <v>CN/25-26/007</v>
       </c>
-      <c r="I113">
+      <c r="I191">
         <v>2</v>
       </c>
-      <c r="J113">
+      <c r="J191">
         <v>4020.8</v>
       </c>
-      <c r="K113" t="str">
-        <v>Sales Return</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114">
+      <c r="K191" t="str">
+        <v>Sales Return</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192">
         <v>4</v>
       </c>
-      <c r="B114" t="str">
+      <c r="B192" t="str">
         <v>TANKHI DESIGNS1 PRIVATE LTD,Mumbai</v>
       </c>
-      <c r="D114" t="str">
+      <c r="D192" t="str">
         <v>PK 674</v>
       </c>
-      <c r="E114" t="str">
+      <c r="E192" t="str">
         <v>Pk 674</v>
       </c>
-      <c r="F114" t="str">
+      <c r="F192" t="str">
         <v>Onion</v>
       </c>
-      <c r="G114" s="1" t="str">
+      <c r="G192" s="1" t="str">
         <v>08/04/2025</v>
       </c>
-      <c r="H114" t="str">
+      <c r="H192" t="str">
         <v>CN/24-25/010</v>
       </c>
-      <c r="I114">
+      <c r="I192">
         <v>1</v>
       </c>
-      <c r="J114">
+      <c r="J192">
         <v>2010.4</v>
       </c>
-      <c r="K114" t="str">
-        <v>Sales Return</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="H115" t="str">
+      <c r="K192" t="str">
+        <v>Sales Return</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="H193" t="str">
         <v>Total</v>
       </c>
-      <c r="I115">
+      <c r="I193">
         <v>23</v>
       </c>
-      <c r="J115">
+      <c r="J193">
         <v>46239.2</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="C27:G27"/>
-    <mergeCell ref="C34:G34"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="C43:G43"/>
-    <mergeCell ref="C57:G57"/>
-    <mergeCell ref="C69:G69"/>
-    <mergeCell ref="C71:G71"/>
-    <mergeCell ref="C74:G74"/>
-    <mergeCell ref="C85:G85"/>
-    <mergeCell ref="C90:G90"/>
-    <mergeCell ref="C98:G98"/>
-    <mergeCell ref="C110:G110"/>
-    <mergeCell ref="C115:G115"/>
+  <mergeCells count="19">
+    <mergeCell ref="C64:G64"/>
+    <mergeCell ref="C66:G66"/>
+    <mergeCell ref="C78:G78"/>
+    <mergeCell ref="C80:G80"/>
+    <mergeCell ref="C96:G96"/>
+    <mergeCell ref="C100:G100"/>
+    <mergeCell ref="C105:G105"/>
+    <mergeCell ref="C112:G112"/>
+    <mergeCell ref="C114:G114"/>
+    <mergeCell ref="C121:G121"/>
+    <mergeCell ref="C135:G135"/>
+    <mergeCell ref="C147:G147"/>
+    <mergeCell ref="C149:G149"/>
+    <mergeCell ref="C152:G152"/>
+    <mergeCell ref="C163:G163"/>
+    <mergeCell ref="C168:G168"/>
+    <mergeCell ref="C176:G176"/>
+    <mergeCell ref="C188:G188"/>
+    <mergeCell ref="C193:G193"/>
   </mergeCells>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:K115"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:K193"/>
   </ignoredErrors>
 </worksheet>
 </file>